--- a/CH4_reducido.xlsx
+++ b/CH4_reducido.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="58">
   <si>
     <t>Category</t>
   </si>
@@ -166,10 +166,7 @@
     <t>E5</t>
   </si>
   <si>
-    <t>E6abc</t>
-  </si>
-  <si>
-    <t>E6d</t>
+    <t>E6</t>
   </si>
   <si>
     <t>PFI</t>
@@ -657,10 +654,10 @@
         <v>44</v>
       </c>
       <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
         <v>56</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
       </c>
       <c r="J2">
         <v>10</v>
@@ -728,10 +725,10 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J3">
         <v>10</v>
@@ -799,10 +796,10 @@
         <v>45</v>
       </c>
       <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
         <v>56</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -870,10 +867,10 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -941,10 +938,10 @@
         <v>46</v>
       </c>
       <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
         <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>57</v>
       </c>
       <c r="J6">
         <v>10</v>
@@ -1012,10 +1009,10 @@
         <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7">
         <v>10</v>
@@ -1083,13 +1080,13 @@
         <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
         <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
       </c>
       <c r="J8">
         <v>10</v>
@@ -1157,13 +1154,13 @@
         <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J9">
         <v>10</v>
@@ -1231,13 +1228,13 @@
         <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
         <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>57</v>
       </c>
       <c r="J10">
         <v>10</v>
@@ -1305,13 +1302,13 @@
         <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -1379,13 +1376,13 @@
         <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
         <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>57</v>
       </c>
       <c r="J12">
         <v>10</v>
@@ -1453,13 +1450,13 @@
         <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J13">
         <v>10</v>
@@ -1527,13 +1524,13 @@
         <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
         <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>57</v>
       </c>
       <c r="J14">
         <v>10</v>
@@ -1601,13 +1598,13 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J15">
         <v>10</v>
@@ -1672,16 +1669,16 @@
         <v>35</v>
       </c>
       <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
         <v>51</v>
       </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
       <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
         <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>57</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -1746,16 +1743,16 @@
         <v>35</v>
       </c>
       <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
         <v>51</v>
       </c>
-      <c r="E17" t="s">
-        <v>52</v>
-      </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J17">
         <v>10</v>
@@ -1823,10 +1820,10 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s">
         <v>56</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
       </c>
       <c r="J18">
         <v>10</v>
@@ -1894,10 +1891,10 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J19">
         <v>10</v>
@@ -1965,10 +1962,10 @@
         <v>45</v>
       </c>
       <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
         <v>56</v>
-      </c>
-      <c r="G20" t="s">
-        <v>57</v>
       </c>
       <c r="J20">
         <v>10</v>
@@ -2036,10 +2033,10 @@
         <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J21">
         <v>10</v>
@@ -2107,10 +2104,10 @@
         <v>46</v>
       </c>
       <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
         <v>56</v>
-      </c>
-      <c r="G22" t="s">
-        <v>57</v>
       </c>
       <c r="J22">
         <v>10</v>
@@ -2178,10 +2175,10 @@
         <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J23">
         <v>10</v>
@@ -2249,13 +2246,13 @@
         <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
         <v>56</v>
-      </c>
-      <c r="G24" t="s">
-        <v>57</v>
       </c>
       <c r="J24">
         <v>10</v>
@@ -2323,13 +2320,13 @@
         <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J25">
         <v>10</v>
@@ -2397,13 +2394,13 @@
         <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
         <v>56</v>
-      </c>
-      <c r="G26" t="s">
-        <v>57</v>
       </c>
       <c r="J26">
         <v>10</v>
@@ -2471,13 +2468,13 @@
         <v>48</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J27">
         <v>10</v>
@@ -2545,13 +2542,13 @@
         <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" t="s">
         <v>56</v>
-      </c>
-      <c r="G28" t="s">
-        <v>57</v>
       </c>
       <c r="J28">
         <v>10</v>
@@ -2619,13 +2616,13 @@
         <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J29">
         <v>10</v>
@@ -2693,13 +2690,13 @@
         <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" t="s">
         <v>56</v>
-      </c>
-      <c r="G30" t="s">
-        <v>57</v>
       </c>
       <c r="J30">
         <v>10</v>
@@ -2767,13 +2764,13 @@
         <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J31">
         <v>10</v>
@@ -2841,13 +2838,13 @@
         <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" t="s">
         <v>56</v>
-      </c>
-      <c r="G32" t="s">
-        <v>57</v>
       </c>
       <c r="J32">
         <v>10</v>
@@ -2915,13 +2912,13 @@
         <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J33">
         <v>10</v>
@@ -2986,16 +2983,16 @@
         <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
         <v>56</v>
-      </c>
-      <c r="G34" t="s">
-        <v>57</v>
       </c>
       <c r="J34">
         <v>10</v>
@@ -3060,16 +3057,16 @@
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J35">
         <v>10</v>
@@ -3134,16 +3131,16 @@
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" t="s">
         <v>56</v>
-      </c>
-      <c r="G36" t="s">
-        <v>57</v>
       </c>
       <c r="J36">
         <v>10</v>
@@ -3208,16 +3205,16 @@
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J37">
         <v>10</v>
@@ -3285,10 +3282,10 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" t="s">
         <v>56</v>
-      </c>
-      <c r="G38" t="s">
-        <v>57</v>
       </c>
       <c r="J38">
         <v>10</v>
@@ -3356,10 +3353,10 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J39">
         <v>10</v>
@@ -3427,10 +3424,10 @@
         <v>45</v>
       </c>
       <c r="F40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" t="s">
         <v>56</v>
-      </c>
-      <c r="G40" t="s">
-        <v>57</v>
       </c>
       <c r="J40">
         <v>10</v>
@@ -3498,10 +3495,10 @@
         <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J41">
         <v>10</v>
@@ -3569,10 +3566,10 @@
         <v>46</v>
       </c>
       <c r="F42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" t="s">
         <v>56</v>
-      </c>
-      <c r="G42" t="s">
-        <v>57</v>
       </c>
       <c r="J42">
         <v>10</v>
@@ -3640,10 +3637,10 @@
         <v>46</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J43">
         <v>10</v>
@@ -3711,13 +3708,13 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" t="s">
         <v>56</v>
-      </c>
-      <c r="G44" t="s">
-        <v>57</v>
       </c>
       <c r="J44">
         <v>10</v>
@@ -3785,13 +3782,13 @@
         <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J45">
         <v>10</v>
@@ -3859,13 +3856,13 @@
         <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" t="s">
         <v>56</v>
-      </c>
-      <c r="G46" t="s">
-        <v>57</v>
       </c>
       <c r="J46">
         <v>10</v>
@@ -3933,13 +3930,13 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J47">
         <v>10</v>
@@ -4007,13 +4004,13 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" t="s">
         <v>56</v>
-      </c>
-      <c r="G48" t="s">
-        <v>57</v>
       </c>
       <c r="J48">
         <v>10</v>
@@ -4081,13 +4078,13 @@
         <v>49</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J49">
         <v>10</v>
@@ -4155,13 +4152,13 @@
         <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" t="s">
         <v>56</v>
-      </c>
-      <c r="G50" t="s">
-        <v>57</v>
       </c>
       <c r="J50">
         <v>10</v>
@@ -4229,13 +4226,13 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J51">
         <v>10</v>
@@ -4300,16 +4297,16 @@
         <v>36</v>
       </c>
       <c r="D52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" t="s">
         <v>51</v>
       </c>
-      <c r="E52" t="s">
-        <v>52</v>
-      </c>
       <c r="F52" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" t="s">
         <v>56</v>
-      </c>
-      <c r="G52" t="s">
-        <v>57</v>
       </c>
       <c r="J52">
         <v>10</v>
@@ -4374,16 +4371,16 @@
         <v>36</v>
       </c>
       <c r="D53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" t="s">
         <v>51</v>
       </c>
-      <c r="E53" t="s">
-        <v>52</v>
-      </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J53">
         <v>10</v>
@@ -4451,10 +4448,10 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" t="s">
         <v>56</v>
-      </c>
-      <c r="G54" t="s">
-        <v>57</v>
       </c>
       <c r="J54">
         <v>10</v>
@@ -4522,10 +4519,10 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J55">
         <v>10</v>
@@ -4593,10 +4590,10 @@
         <v>45</v>
       </c>
       <c r="F56" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" t="s">
         <v>56</v>
-      </c>
-      <c r="G56" t="s">
-        <v>57</v>
       </c>
       <c r="J56">
         <v>10</v>
@@ -4664,10 +4661,10 @@
         <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J57">
         <v>10</v>
@@ -4735,10 +4732,10 @@
         <v>46</v>
       </c>
       <c r="F58" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" t="s">
         <v>56</v>
-      </c>
-      <c r="G58" t="s">
-        <v>57</v>
       </c>
       <c r="J58">
         <v>10</v>
@@ -4806,10 +4803,10 @@
         <v>46</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J59">
         <v>10</v>
@@ -4877,13 +4874,13 @@
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F60" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" t="s">
         <v>56</v>
-      </c>
-      <c r="G60" t="s">
-        <v>57</v>
       </c>
       <c r="J60">
         <v>10</v>
@@ -4951,13 +4948,13 @@
         <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J61">
         <v>10</v>
@@ -5025,13 +5022,13 @@
         <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F62" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" t="s">
         <v>56</v>
-      </c>
-      <c r="G62" t="s">
-        <v>57</v>
       </c>
       <c r="J62">
         <v>10</v>
@@ -5099,13 +5096,13 @@
         <v>48</v>
       </c>
       <c r="E63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J63">
         <v>10</v>
@@ -5173,13 +5170,13 @@
         <v>49</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F64" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" t="s">
         <v>56</v>
-      </c>
-      <c r="G64" t="s">
-        <v>57</v>
       </c>
       <c r="J64">
         <v>10</v>
@@ -5247,13 +5244,13 @@
         <v>49</v>
       </c>
       <c r="E65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J65">
         <v>10</v>
@@ -5321,13 +5318,13 @@
         <v>50</v>
       </c>
       <c r="E66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F66" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" t="s">
         <v>56</v>
-      </c>
-      <c r="G66" t="s">
-        <v>57</v>
       </c>
       <c r="J66">
         <v>10</v>
@@ -5395,13 +5392,13 @@
         <v>50</v>
       </c>
       <c r="E67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J67">
         <v>10</v>
@@ -5469,13 +5466,13 @@
         <v>50</v>
       </c>
       <c r="E68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F68" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" t="s">
         <v>56</v>
-      </c>
-      <c r="G68" t="s">
-        <v>57</v>
       </c>
       <c r="J68">
         <v>10</v>
@@ -5543,13 +5540,13 @@
         <v>50</v>
       </c>
       <c r="E69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J69">
         <v>10</v>
@@ -5614,16 +5611,16 @@
         <v>36</v>
       </c>
       <c r="D70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F70" t="s">
+        <v>55</v>
+      </c>
+      <c r="G70" t="s">
         <v>56</v>
-      </c>
-      <c r="G70" t="s">
-        <v>57</v>
       </c>
       <c r="J70">
         <v>10</v>
@@ -5688,16 +5685,16 @@
         <v>36</v>
       </c>
       <c r="D71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J71">
         <v>10</v>
@@ -5762,16 +5759,16 @@
         <v>36</v>
       </c>
       <c r="D72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F72" t="s">
+        <v>55</v>
+      </c>
+      <c r="G72" t="s">
         <v>56</v>
-      </c>
-      <c r="G72" t="s">
-        <v>57</v>
       </c>
       <c r="J72">
         <v>10</v>
@@ -5836,16 +5833,16 @@
         <v>36</v>
       </c>
       <c r="D73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J73">
         <v>10</v>
@@ -5913,10 +5910,10 @@
         <v>44</v>
       </c>
       <c r="F74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74" t="s">
         <v>56</v>
-      </c>
-      <c r="G74" t="s">
-        <v>57</v>
       </c>
       <c r="J74">
         <v>10</v>
@@ -5984,10 +5981,10 @@
         <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G75" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J75">
         <v>10</v>
@@ -6055,10 +6052,10 @@
         <v>45</v>
       </c>
       <c r="F76" t="s">
+        <v>55</v>
+      </c>
+      <c r="G76" t="s">
         <v>56</v>
-      </c>
-      <c r="G76" t="s">
-        <v>57</v>
       </c>
       <c r="J76">
         <v>10</v>
@@ -6126,10 +6123,10 @@
         <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J77">
         <v>10</v>
@@ -6197,10 +6194,10 @@
         <v>46</v>
       </c>
       <c r="F78" t="s">
+        <v>55</v>
+      </c>
+      <c r="G78" t="s">
         <v>56</v>
-      </c>
-      <c r="G78" t="s">
-        <v>57</v>
       </c>
       <c r="J78">
         <v>10</v>
@@ -6268,10 +6265,10 @@
         <v>46</v>
       </c>
       <c r="F79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J79">
         <v>10</v>
@@ -6339,10 +6336,10 @@
         <v>47</v>
       </c>
       <c r="F80" t="s">
+        <v>55</v>
+      </c>
+      <c r="G80" t="s">
         <v>56</v>
-      </c>
-      <c r="G80" t="s">
-        <v>57</v>
       </c>
       <c r="J80">
         <v>10</v>
@@ -6410,10 +6407,10 @@
         <v>47</v>
       </c>
       <c r="F81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J81">
         <v>10</v>
@@ -6481,13 +6478,13 @@
         <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F82" t="s">
+        <v>55</v>
+      </c>
+      <c r="G82" t="s">
         <v>56</v>
-      </c>
-      <c r="G82" t="s">
-        <v>57</v>
       </c>
       <c r="J82">
         <v>10</v>
@@ -6555,13 +6552,13 @@
         <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J83">
         <v>10</v>
@@ -6629,13 +6626,13 @@
         <v>49</v>
       </c>
       <c r="E84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F84" t="s">
+        <v>55</v>
+      </c>
+      <c r="G84" t="s">
         <v>56</v>
-      </c>
-      <c r="G84" t="s">
-        <v>57</v>
       </c>
       <c r="J84">
         <v>10</v>
@@ -6703,13 +6700,13 @@
         <v>49</v>
       </c>
       <c r="E85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J85">
         <v>10</v>
@@ -6777,13 +6774,13 @@
         <v>50</v>
       </c>
       <c r="E86" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F86" t="s">
+        <v>55</v>
+      </c>
+      <c r="G86" t="s">
         <v>56</v>
-      </c>
-      <c r="G86" t="s">
-        <v>57</v>
       </c>
       <c r="J86">
         <v>10</v>
@@ -6851,13 +6848,13 @@
         <v>50</v>
       </c>
       <c r="E87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J87">
         <v>10</v>
@@ -6922,16 +6919,16 @@
         <v>37</v>
       </c>
       <c r="D88" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E88" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F88" t="s">
+        <v>55</v>
+      </c>
+      <c r="G88" t="s">
         <v>56</v>
-      </c>
-      <c r="G88" t="s">
-        <v>57</v>
       </c>
       <c r="J88">
         <v>10</v>
@@ -6996,16 +6993,16 @@
         <v>37</v>
       </c>
       <c r="D89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E89" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G89" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J89">
         <v>10</v>
@@ -7073,10 +7070,10 @@
         <v>44</v>
       </c>
       <c r="F90" t="s">
+        <v>55</v>
+      </c>
+      <c r="G90" t="s">
         <v>56</v>
-      </c>
-      <c r="G90" t="s">
-        <v>57</v>
       </c>
       <c r="J90">
         <v>10</v>
@@ -7144,10 +7141,10 @@
         <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G91" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J91">
         <v>10</v>
@@ -7215,10 +7212,10 @@
         <v>45</v>
       </c>
       <c r="F92" t="s">
+        <v>55</v>
+      </c>
+      <c r="G92" t="s">
         <v>56</v>
-      </c>
-      <c r="G92" t="s">
-        <v>57</v>
       </c>
       <c r="J92">
         <v>10</v>
@@ -7286,10 +7283,10 @@
         <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G93" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J93">
         <v>10</v>
@@ -7357,10 +7354,10 @@
         <v>46</v>
       </c>
       <c r="F94" t="s">
+        <v>55</v>
+      </c>
+      <c r="G94" t="s">
         <v>56</v>
-      </c>
-      <c r="G94" t="s">
-        <v>57</v>
       </c>
       <c r="J94">
         <v>10</v>
@@ -7428,10 +7425,10 @@
         <v>46</v>
       </c>
       <c r="F95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G95" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J95">
         <v>10</v>
@@ -7499,10 +7496,10 @@
         <v>47</v>
       </c>
       <c r="F96" t="s">
+        <v>55</v>
+      </c>
+      <c r="G96" t="s">
         <v>56</v>
-      </c>
-      <c r="G96" t="s">
-        <v>57</v>
       </c>
       <c r="J96">
         <v>10</v>
@@ -7570,10 +7567,10 @@
         <v>47</v>
       </c>
       <c r="F97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G97" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J97">
         <v>10</v>
@@ -7641,13 +7638,13 @@
         <v>48</v>
       </c>
       <c r="E98" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F98" t="s">
+        <v>55</v>
+      </c>
+      <c r="G98" t="s">
         <v>56</v>
-      </c>
-      <c r="G98" t="s">
-        <v>57</v>
       </c>
       <c r="J98">
         <v>10</v>
@@ -7715,13 +7712,13 @@
         <v>48</v>
       </c>
       <c r="E99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J99">
         <v>10</v>
@@ -7789,13 +7786,13 @@
         <v>49</v>
       </c>
       <c r="E100" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F100" t="s">
+        <v>55</v>
+      </c>
+      <c r="G100" t="s">
         <v>56</v>
-      </c>
-      <c r="G100" t="s">
-        <v>57</v>
       </c>
       <c r="J100">
         <v>10</v>
@@ -7863,13 +7860,13 @@
         <v>49</v>
       </c>
       <c r="E101" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G101" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J101">
         <v>10</v>
@@ -7937,13 +7934,13 @@
         <v>50</v>
       </c>
       <c r="E102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F102" t="s">
+        <v>55</v>
+      </c>
+      <c r="G102" t="s">
         <v>56</v>
-      </c>
-      <c r="G102" t="s">
-        <v>57</v>
       </c>
       <c r="J102">
         <v>10</v>
@@ -8011,13 +8008,13 @@
         <v>50</v>
       </c>
       <c r="E103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J103">
         <v>10</v>
@@ -8082,16 +8079,16 @@
         <v>37</v>
       </c>
       <c r="D104" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F104" t="s">
+        <v>55</v>
+      </c>
+      <c r="G104" t="s">
         <v>56</v>
-      </c>
-      <c r="G104" t="s">
-        <v>57</v>
       </c>
       <c r="J104">
         <v>10</v>
@@ -8156,16 +8153,16 @@
         <v>37</v>
       </c>
       <c r="D105" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F105" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G105" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J105">
         <v>10</v>
@@ -8233,10 +8230,10 @@
         <v>44</v>
       </c>
       <c r="F106" t="s">
+        <v>55</v>
+      </c>
+      <c r="G106" t="s">
         <v>56</v>
-      </c>
-      <c r="G106" t="s">
-        <v>57</v>
       </c>
       <c r="J106">
         <v>10</v>
@@ -8304,10 +8301,10 @@
         <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G107" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J107">
         <v>10</v>
@@ -8375,10 +8372,10 @@
         <v>45</v>
       </c>
       <c r="F108" t="s">
+        <v>55</v>
+      </c>
+      <c r="G108" t="s">
         <v>56</v>
-      </c>
-      <c r="G108" t="s">
-        <v>57</v>
       </c>
       <c r="J108">
         <v>10</v>
@@ -8446,10 +8443,10 @@
         <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G109" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J109">
         <v>10</v>
@@ -8517,10 +8514,10 @@
         <v>46</v>
       </c>
       <c r="F110" t="s">
+        <v>55</v>
+      </c>
+      <c r="G110" t="s">
         <v>56</v>
-      </c>
-      <c r="G110" t="s">
-        <v>57</v>
       </c>
       <c r="J110">
         <v>10</v>
@@ -8588,10 +8585,10 @@
         <v>46</v>
       </c>
       <c r="F111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G111" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J111">
         <v>10</v>
@@ -8659,10 +8656,10 @@
         <v>47</v>
       </c>
       <c r="F112" t="s">
+        <v>55</v>
+      </c>
+      <c r="G112" t="s">
         <v>56</v>
-      </c>
-      <c r="G112" t="s">
-        <v>57</v>
       </c>
       <c r="J112">
         <v>10</v>
@@ -8730,10 +8727,10 @@
         <v>47</v>
       </c>
       <c r="F113" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G113" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J113">
         <v>10</v>
@@ -8801,13 +8798,13 @@
         <v>48</v>
       </c>
       <c r="E114" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F114" t="s">
+        <v>55</v>
+      </c>
+      <c r="G114" t="s">
         <v>56</v>
-      </c>
-      <c r="G114" t="s">
-        <v>57</v>
       </c>
       <c r="J114">
         <v>10</v>
@@ -8875,13 +8872,13 @@
         <v>48</v>
       </c>
       <c r="E115" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F115" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G115" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J115">
         <v>10</v>
@@ -8949,13 +8946,13 @@
         <v>49</v>
       </c>
       <c r="E116" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F116" t="s">
+        <v>55</v>
+      </c>
+      <c r="G116" t="s">
         <v>56</v>
-      </c>
-      <c r="G116" t="s">
-        <v>57</v>
       </c>
       <c r="J116">
         <v>10</v>
@@ -9023,13 +9020,13 @@
         <v>49</v>
       </c>
       <c r="E117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G117" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J117">
         <v>10</v>
@@ -9097,13 +9094,13 @@
         <v>50</v>
       </c>
       <c r="E118" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F118" t="s">
+        <v>55</v>
+      </c>
+      <c r="G118" t="s">
         <v>56</v>
-      </c>
-      <c r="G118" t="s">
-        <v>57</v>
       </c>
       <c r="J118">
         <v>10</v>
@@ -9171,13 +9168,13 @@
         <v>50</v>
       </c>
       <c r="E119" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F119" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G119" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J119">
         <v>10</v>
@@ -9242,16 +9239,16 @@
         <v>37</v>
       </c>
       <c r="D120" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E120" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F120" t="s">
+        <v>55</v>
+      </c>
+      <c r="G120" t="s">
         <v>56</v>
-      </c>
-      <c r="G120" t="s">
-        <v>57</v>
       </c>
       <c r="J120">
         <v>10</v>
@@ -9316,16 +9313,16 @@
         <v>37</v>
       </c>
       <c r="D121" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E121" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F121" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G121" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J121">
         <v>10</v>
@@ -9393,10 +9390,10 @@
         <v>44</v>
       </c>
       <c r="F122" t="s">
+        <v>55</v>
+      </c>
+      <c r="G122" t="s">
         <v>56</v>
-      </c>
-      <c r="G122" t="s">
-        <v>57</v>
       </c>
       <c r="J122">
         <v>10</v>
@@ -9464,10 +9461,10 @@
         <v>44</v>
       </c>
       <c r="F123" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G123" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J123">
         <v>10</v>
@@ -9535,10 +9532,10 @@
         <v>45</v>
       </c>
       <c r="F124" t="s">
+        <v>55</v>
+      </c>
+      <c r="G124" t="s">
         <v>56</v>
-      </c>
-      <c r="G124" t="s">
-        <v>57</v>
       </c>
       <c r="J124">
         <v>10</v>
@@ -9606,10 +9603,10 @@
         <v>45</v>
       </c>
       <c r="F125" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G125" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J125">
         <v>10</v>
@@ -9677,10 +9674,10 @@
         <v>46</v>
       </c>
       <c r="F126" t="s">
+        <v>55</v>
+      </c>
+      <c r="G126" t="s">
         <v>56</v>
-      </c>
-      <c r="G126" t="s">
-        <v>57</v>
       </c>
       <c r="J126">
         <v>10</v>
@@ -9748,10 +9745,10 @@
         <v>46</v>
       </c>
       <c r="F127" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G127" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J127">
         <v>10</v>
@@ -9819,10 +9816,10 @@
         <v>47</v>
       </c>
       <c r="F128" t="s">
+        <v>55</v>
+      </c>
+      <c r="G128" t="s">
         <v>56</v>
-      </c>
-      <c r="G128" t="s">
-        <v>57</v>
       </c>
       <c r="J128">
         <v>10</v>
@@ -9890,10 +9887,10 @@
         <v>47</v>
       </c>
       <c r="F129" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G129" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J129">
         <v>10</v>
@@ -9961,13 +9958,13 @@
         <v>48</v>
       </c>
       <c r="E130" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F130" t="s">
+        <v>55</v>
+      </c>
+      <c r="G130" t="s">
         <v>56</v>
-      </c>
-      <c r="G130" t="s">
-        <v>57</v>
       </c>
       <c r="J130">
         <v>10</v>
@@ -10035,13 +10032,13 @@
         <v>48</v>
       </c>
       <c r="E131" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G131" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J131">
         <v>10</v>
@@ -10109,13 +10106,13 @@
         <v>49</v>
       </c>
       <c r="E132" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F132" t="s">
+        <v>55</v>
+      </c>
+      <c r="G132" t="s">
         <v>56</v>
-      </c>
-      <c r="G132" t="s">
-        <v>57</v>
       </c>
       <c r="J132">
         <v>10</v>
@@ -10183,13 +10180,13 @@
         <v>49</v>
       </c>
       <c r="E133" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F133" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G133" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J133">
         <v>10</v>
@@ -10257,13 +10254,13 @@
         <v>50</v>
       </c>
       <c r="E134" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F134" t="s">
+        <v>55</v>
+      </c>
+      <c r="G134" t="s">
         <v>56</v>
-      </c>
-      <c r="G134" t="s">
-        <v>57</v>
       </c>
       <c r="J134">
         <v>10</v>
@@ -10331,13 +10328,13 @@
         <v>50</v>
       </c>
       <c r="E135" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F135" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G135" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J135">
         <v>10</v>
@@ -10402,16 +10399,16 @@
         <v>38</v>
       </c>
       <c r="D136" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E136" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F136" t="s">
+        <v>55</v>
+      </c>
+      <c r="G136" t="s">
         <v>56</v>
-      </c>
-      <c r="G136" t="s">
-        <v>57</v>
       </c>
       <c r="J136">
         <v>10</v>
@@ -10476,16 +10473,16 @@
         <v>38</v>
       </c>
       <c r="D137" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F137" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G137" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J137">
         <v>10</v>
@@ -10553,10 +10550,10 @@
         <v>44</v>
       </c>
       <c r="F138" t="s">
+        <v>55</v>
+      </c>
+      <c r="G138" t="s">
         <v>56</v>
-      </c>
-      <c r="G138" t="s">
-        <v>57</v>
       </c>
       <c r="J138">
         <v>10</v>
@@ -10624,10 +10621,10 @@
         <v>44</v>
       </c>
       <c r="F139" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G139" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J139">
         <v>10</v>
@@ -10695,10 +10692,10 @@
         <v>45</v>
       </c>
       <c r="F140" t="s">
+        <v>55</v>
+      </c>
+      <c r="G140" t="s">
         <v>56</v>
-      </c>
-      <c r="G140" t="s">
-        <v>57</v>
       </c>
       <c r="J140">
         <v>10</v>
@@ -10766,10 +10763,10 @@
         <v>45</v>
       </c>
       <c r="F141" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G141" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J141">
         <v>10</v>
@@ -10837,10 +10834,10 @@
         <v>46</v>
       </c>
       <c r="F142" t="s">
+        <v>55</v>
+      </c>
+      <c r="G142" t="s">
         <v>56</v>
-      </c>
-      <c r="G142" t="s">
-        <v>57</v>
       </c>
       <c r="J142">
         <v>10</v>
@@ -10908,10 +10905,10 @@
         <v>46</v>
       </c>
       <c r="F143" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G143" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J143">
         <v>10</v>
@@ -10979,10 +10976,10 @@
         <v>47</v>
       </c>
       <c r="F144" t="s">
+        <v>55</v>
+      </c>
+      <c r="G144" t="s">
         <v>56</v>
-      </c>
-      <c r="G144" t="s">
-        <v>57</v>
       </c>
       <c r="J144">
         <v>10</v>
@@ -11050,10 +11047,10 @@
         <v>47</v>
       </c>
       <c r="F145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G145" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J145">
         <v>10</v>
@@ -11121,13 +11118,13 @@
         <v>48</v>
       </c>
       <c r="E146" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F146" t="s">
+        <v>55</v>
+      </c>
+      <c r="G146" t="s">
         <v>56</v>
-      </c>
-      <c r="G146" t="s">
-        <v>57</v>
       </c>
       <c r="J146">
         <v>10</v>
@@ -11195,13 +11192,13 @@
         <v>48</v>
       </c>
       <c r="E147" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F147" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G147" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J147">
         <v>10</v>
@@ -11269,13 +11266,13 @@
         <v>49</v>
       </c>
       <c r="E148" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F148" t="s">
+        <v>55</v>
+      </c>
+      <c r="G148" t="s">
         <v>56</v>
-      </c>
-      <c r="G148" t="s">
-        <v>57</v>
       </c>
       <c r="J148">
         <v>10</v>
@@ -11343,13 +11340,13 @@
         <v>49</v>
       </c>
       <c r="E149" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F149" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G149" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J149">
         <v>10</v>
@@ -11417,13 +11414,13 @@
         <v>50</v>
       </c>
       <c r="E150" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F150" t="s">
+        <v>55</v>
+      </c>
+      <c r="G150" t="s">
         <v>56</v>
-      </c>
-      <c r="G150" t="s">
-        <v>57</v>
       </c>
       <c r="J150">
         <v>10</v>
@@ -11491,13 +11488,13 @@
         <v>50</v>
       </c>
       <c r="E151" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G151" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J151">
         <v>10</v>
@@ -11562,16 +11559,16 @@
         <v>38</v>
       </c>
       <c r="D152" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E152" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F152" t="s">
+        <v>55</v>
+      </c>
+      <c r="G152" t="s">
         <v>56</v>
-      </c>
-      <c r="G152" t="s">
-        <v>57</v>
       </c>
       <c r="J152">
         <v>10</v>
@@ -11636,16 +11633,16 @@
         <v>38</v>
       </c>
       <c r="D153" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E153" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F153" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G153" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J153">
         <v>10</v>
@@ -11713,10 +11710,10 @@
         <v>44</v>
       </c>
       <c r="F154" t="s">
+        <v>55</v>
+      </c>
+      <c r="G154" t="s">
         <v>56</v>
-      </c>
-      <c r="G154" t="s">
-        <v>57</v>
       </c>
       <c r="J154">
         <v>10</v>
@@ -11784,10 +11781,10 @@
         <v>44</v>
       </c>
       <c r="F155" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G155" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J155">
         <v>10</v>
@@ -11855,10 +11852,10 @@
         <v>45</v>
       </c>
       <c r="F156" t="s">
+        <v>55</v>
+      </c>
+      <c r="G156" t="s">
         <v>56</v>
-      </c>
-      <c r="G156" t="s">
-        <v>57</v>
       </c>
       <c r="J156">
         <v>10</v>
@@ -11926,10 +11923,10 @@
         <v>45</v>
       </c>
       <c r="F157" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G157" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J157">
         <v>10</v>
@@ -11997,10 +11994,10 @@
         <v>46</v>
       </c>
       <c r="F158" t="s">
+        <v>55</v>
+      </c>
+      <c r="G158" t="s">
         <v>56</v>
-      </c>
-      <c r="G158" t="s">
-        <v>57</v>
       </c>
       <c r="J158">
         <v>10</v>
@@ -12068,10 +12065,10 @@
         <v>46</v>
       </c>
       <c r="F159" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G159" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J159">
         <v>10</v>
@@ -12139,10 +12136,10 @@
         <v>47</v>
       </c>
       <c r="F160" t="s">
+        <v>55</v>
+      </c>
+      <c r="G160" t="s">
         <v>56</v>
-      </c>
-      <c r="G160" t="s">
-        <v>57</v>
       </c>
       <c r="J160">
         <v>10</v>
@@ -12210,10 +12207,10 @@
         <v>47</v>
       </c>
       <c r="F161" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G161" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J161">
         <v>10</v>
@@ -12281,13 +12278,13 @@
         <v>48</v>
       </c>
       <c r="E162" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F162" t="s">
+        <v>55</v>
+      </c>
+      <c r="G162" t="s">
         <v>56</v>
-      </c>
-      <c r="G162" t="s">
-        <v>57</v>
       </c>
       <c r="J162">
         <v>10</v>
@@ -12355,13 +12352,13 @@
         <v>48</v>
       </c>
       <c r="E163" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F163" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G163" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J163">
         <v>10</v>
@@ -12429,13 +12426,13 @@
         <v>49</v>
       </c>
       <c r="E164" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F164" t="s">
+        <v>55</v>
+      </c>
+      <c r="G164" t="s">
         <v>56</v>
-      </c>
-      <c r="G164" t="s">
-        <v>57</v>
       </c>
       <c r="J164">
         <v>10</v>
@@ -12503,13 +12500,13 @@
         <v>49</v>
       </c>
       <c r="E165" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F165" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G165" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J165">
         <v>10</v>
@@ -12577,13 +12574,13 @@
         <v>50</v>
       </c>
       <c r="E166" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F166" t="s">
+        <v>55</v>
+      </c>
+      <c r="G166" t="s">
         <v>56</v>
-      </c>
-      <c r="G166" t="s">
-        <v>57</v>
       </c>
       <c r="J166">
         <v>10</v>
@@ -12651,13 +12648,13 @@
         <v>50</v>
       </c>
       <c r="E167" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F167" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G167" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J167">
         <v>10</v>
@@ -12722,16 +12719,16 @@
         <v>38</v>
       </c>
       <c r="D168" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E168" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F168" t="s">
+        <v>55</v>
+      </c>
+      <c r="G168" t="s">
         <v>56</v>
-      </c>
-      <c r="G168" t="s">
-        <v>57</v>
       </c>
       <c r="J168">
         <v>10</v>
@@ -12796,16 +12793,16 @@
         <v>38</v>
       </c>
       <c r="D169" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F169" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G169" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J169">
         <v>10</v>
@@ -12873,10 +12870,10 @@
         <v>44</v>
       </c>
       <c r="F170" t="s">
+        <v>55</v>
+      </c>
+      <c r="G170" t="s">
         <v>56</v>
-      </c>
-      <c r="G170" t="s">
-        <v>57</v>
       </c>
       <c r="J170">
         <v>10</v>
@@ -12944,10 +12941,10 @@
         <v>44</v>
       </c>
       <c r="F171" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G171" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J171">
         <v>10</v>
@@ -13015,10 +13012,10 @@
         <v>45</v>
       </c>
       <c r="F172" t="s">
+        <v>55</v>
+      </c>
+      <c r="G172" t="s">
         <v>56</v>
-      </c>
-      <c r="G172" t="s">
-        <v>57</v>
       </c>
       <c r="J172">
         <v>10</v>
@@ -13086,10 +13083,10 @@
         <v>45</v>
       </c>
       <c r="F173" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G173" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J173">
         <v>10</v>
@@ -13157,10 +13154,10 @@
         <v>46</v>
       </c>
       <c r="F174" t="s">
+        <v>55</v>
+      </c>
+      <c r="G174" t="s">
         <v>56</v>
-      </c>
-      <c r="G174" t="s">
-        <v>57</v>
       </c>
       <c r="J174">
         <v>10</v>
@@ -13228,10 +13225,10 @@
         <v>46</v>
       </c>
       <c r="F175" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G175" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J175">
         <v>10</v>
@@ -13299,10 +13296,10 @@
         <v>47</v>
       </c>
       <c r="F176" t="s">
+        <v>55</v>
+      </c>
+      <c r="G176" t="s">
         <v>56</v>
-      </c>
-      <c r="G176" t="s">
-        <v>57</v>
       </c>
       <c r="J176">
         <v>10</v>
@@ -13370,10 +13367,10 @@
         <v>47</v>
       </c>
       <c r="F177" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G177" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J177">
         <v>10</v>
@@ -13441,13 +13438,13 @@
         <v>48</v>
       </c>
       <c r="E178" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F178" t="s">
+        <v>55</v>
+      </c>
+      <c r="G178" t="s">
         <v>56</v>
-      </c>
-      <c r="G178" t="s">
-        <v>57</v>
       </c>
       <c r="J178">
         <v>10</v>
@@ -13515,13 +13512,13 @@
         <v>48</v>
       </c>
       <c r="E179" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F179" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G179" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J179">
         <v>10</v>
@@ -13589,13 +13586,13 @@
         <v>49</v>
       </c>
       <c r="E180" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F180" t="s">
+        <v>55</v>
+      </c>
+      <c r="G180" t="s">
         <v>56</v>
-      </c>
-      <c r="G180" t="s">
-        <v>57</v>
       </c>
       <c r="J180">
         <v>10</v>
@@ -13663,13 +13660,13 @@
         <v>49</v>
       </c>
       <c r="E181" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F181" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G181" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J181">
         <v>10</v>
@@ -13737,13 +13734,13 @@
         <v>50</v>
       </c>
       <c r="E182" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F182" t="s">
+        <v>55</v>
+      </c>
+      <c r="G182" t="s">
         <v>56</v>
-      </c>
-      <c r="G182" t="s">
-        <v>57</v>
       </c>
       <c r="J182">
         <v>10</v>
@@ -13811,13 +13808,13 @@
         <v>50</v>
       </c>
       <c r="E183" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F183" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G183" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J183">
         <v>10</v>
@@ -13882,16 +13879,16 @@
         <v>39</v>
       </c>
       <c r="D184" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E184" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F184" t="s">
+        <v>55</v>
+      </c>
+      <c r="G184" t="s">
         <v>56</v>
-      </c>
-      <c r="G184" t="s">
-        <v>57</v>
       </c>
       <c r="J184">
         <v>10</v>
@@ -13956,16 +13953,16 @@
         <v>39</v>
       </c>
       <c r="D185" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E185" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F185" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G185" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J185">
         <v>10</v>
@@ -14033,10 +14030,10 @@
         <v>44</v>
       </c>
       <c r="F186" t="s">
+        <v>55</v>
+      </c>
+      <c r="G186" t="s">
         <v>56</v>
-      </c>
-      <c r="G186" t="s">
-        <v>57</v>
       </c>
       <c r="J186">
         <v>10</v>
@@ -14104,10 +14101,10 @@
         <v>44</v>
       </c>
       <c r="F187" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G187" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J187">
         <v>10</v>
@@ -14175,10 +14172,10 @@
         <v>45</v>
       </c>
       <c r="F188" t="s">
+        <v>55</v>
+      </c>
+      <c r="G188" t="s">
         <v>56</v>
-      </c>
-      <c r="G188" t="s">
-        <v>57</v>
       </c>
       <c r="J188">
         <v>10</v>
@@ -14246,10 +14243,10 @@
         <v>45</v>
       </c>
       <c r="F189" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G189" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J189">
         <v>10</v>
@@ -14317,10 +14314,10 @@
         <v>46</v>
       </c>
       <c r="F190" t="s">
+        <v>55</v>
+      </c>
+      <c r="G190" t="s">
         <v>56</v>
-      </c>
-      <c r="G190" t="s">
-        <v>57</v>
       </c>
       <c r="J190">
         <v>10</v>
@@ -14388,10 +14385,10 @@
         <v>46</v>
       </c>
       <c r="F191" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G191" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J191">
         <v>10</v>
@@ -14459,10 +14456,10 @@
         <v>47</v>
       </c>
       <c r="F192" t="s">
+        <v>55</v>
+      </c>
+      <c r="G192" t="s">
         <v>56</v>
-      </c>
-      <c r="G192" t="s">
-        <v>57</v>
       </c>
       <c r="J192">
         <v>10</v>
@@ -14530,10 +14527,10 @@
         <v>47</v>
       </c>
       <c r="F193" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G193" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J193">
         <v>10</v>
@@ -14601,13 +14598,13 @@
         <v>48</v>
       </c>
       <c r="E194" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F194" t="s">
+        <v>55</v>
+      </c>
+      <c r="G194" t="s">
         <v>56</v>
-      </c>
-      <c r="G194" t="s">
-        <v>57</v>
       </c>
       <c r="J194">
         <v>10</v>
@@ -14675,13 +14672,13 @@
         <v>48</v>
       </c>
       <c r="E195" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F195" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G195" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J195">
         <v>10</v>
@@ -14749,13 +14746,13 @@
         <v>49</v>
       </c>
       <c r="E196" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F196" t="s">
+        <v>55</v>
+      </c>
+      <c r="G196" t="s">
         <v>56</v>
-      </c>
-      <c r="G196" t="s">
-        <v>57</v>
       </c>
       <c r="J196">
         <v>10</v>
@@ -14823,13 +14820,13 @@
         <v>49</v>
       </c>
       <c r="E197" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F197" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G197" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J197">
         <v>10</v>
@@ -14897,13 +14894,13 @@
         <v>50</v>
       </c>
       <c r="E198" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F198" t="s">
+        <v>55</v>
+      </c>
+      <c r="G198" t="s">
         <v>56</v>
-      </c>
-      <c r="G198" t="s">
-        <v>57</v>
       </c>
       <c r="J198">
         <v>10</v>
@@ -14971,13 +14968,13 @@
         <v>50</v>
       </c>
       <c r="E199" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F199" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G199" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J199">
         <v>10</v>
@@ -15042,16 +15039,16 @@
         <v>39</v>
       </c>
       <c r="D200" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E200" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F200" t="s">
+        <v>55</v>
+      </c>
+      <c r="G200" t="s">
         <v>56</v>
-      </c>
-      <c r="G200" t="s">
-        <v>57</v>
       </c>
       <c r="J200">
         <v>10</v>
@@ -15116,16 +15113,16 @@
         <v>39</v>
       </c>
       <c r="D201" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E201" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F201" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G201" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J201">
         <v>10</v>
@@ -15193,10 +15190,10 @@
         <v>44</v>
       </c>
       <c r="F202" t="s">
+        <v>55</v>
+      </c>
+      <c r="G202" t="s">
         <v>56</v>
-      </c>
-      <c r="G202" t="s">
-        <v>57</v>
       </c>
       <c r="J202">
         <v>10</v>
@@ -15264,10 +15261,10 @@
         <v>44</v>
       </c>
       <c r="F203" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G203" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J203">
         <v>10</v>
@@ -15335,10 +15332,10 @@
         <v>45</v>
       </c>
       <c r="F204" t="s">
+        <v>55</v>
+      </c>
+      <c r="G204" t="s">
         <v>56</v>
-      </c>
-      <c r="G204" t="s">
-        <v>57</v>
       </c>
       <c r="J204">
         <v>10</v>
@@ -15406,10 +15403,10 @@
         <v>45</v>
       </c>
       <c r="F205" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G205" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J205">
         <v>10</v>
@@ -15477,10 +15474,10 @@
         <v>46</v>
       </c>
       <c r="F206" t="s">
+        <v>55</v>
+      </c>
+      <c r="G206" t="s">
         <v>56</v>
-      </c>
-      <c r="G206" t="s">
-        <v>57</v>
       </c>
       <c r="J206">
         <v>10</v>
@@ -15548,10 +15545,10 @@
         <v>46</v>
       </c>
       <c r="F207" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G207" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J207">
         <v>10</v>
@@ -15619,10 +15616,10 @@
         <v>47</v>
       </c>
       <c r="F208" t="s">
+        <v>55</v>
+      </c>
+      <c r="G208" t="s">
         <v>56</v>
-      </c>
-      <c r="G208" t="s">
-        <v>57</v>
       </c>
       <c r="J208">
         <v>10</v>
@@ -15690,10 +15687,10 @@
         <v>47</v>
       </c>
       <c r="F209" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G209" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J209">
         <v>10</v>
@@ -15761,13 +15758,13 @@
         <v>48</v>
       </c>
       <c r="E210" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F210" t="s">
+        <v>55</v>
+      </c>
+      <c r="G210" t="s">
         <v>56</v>
-      </c>
-      <c r="G210" t="s">
-        <v>57</v>
       </c>
       <c r="J210">
         <v>10</v>
@@ -15835,13 +15832,13 @@
         <v>48</v>
       </c>
       <c r="E211" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F211" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G211" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J211">
         <v>10</v>
@@ -15909,13 +15906,13 @@
         <v>49</v>
       </c>
       <c r="E212" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F212" t="s">
+        <v>55</v>
+      </c>
+      <c r="G212" t="s">
         <v>56</v>
-      </c>
-      <c r="G212" t="s">
-        <v>57</v>
       </c>
       <c r="J212">
         <v>10</v>
@@ -15983,13 +15980,13 @@
         <v>49</v>
       </c>
       <c r="E213" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F213" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G213" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J213">
         <v>10</v>
@@ -16057,13 +16054,13 @@
         <v>50</v>
       </c>
       <c r="E214" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F214" t="s">
+        <v>55</v>
+      </c>
+      <c r="G214" t="s">
         <v>56</v>
-      </c>
-      <c r="G214" t="s">
-        <v>57</v>
       </c>
       <c r="J214">
         <v>10</v>
@@ -16131,13 +16128,13 @@
         <v>50</v>
       </c>
       <c r="E215" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F215" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G215" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J215">
         <v>10</v>
@@ -16202,16 +16199,16 @@
         <v>39</v>
       </c>
       <c r="D216" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E216" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F216" t="s">
+        <v>55</v>
+      </c>
+      <c r="G216" t="s">
         <v>56</v>
-      </c>
-      <c r="G216" t="s">
-        <v>57</v>
       </c>
       <c r="J216">
         <v>10</v>
@@ -16276,16 +16273,16 @@
         <v>39</v>
       </c>
       <c r="D217" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E217" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F217" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G217" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J217">
         <v>10</v>
@@ -16353,10 +16350,10 @@
         <v>44</v>
       </c>
       <c r="F218" t="s">
+        <v>55</v>
+      </c>
+      <c r="G218" t="s">
         <v>56</v>
-      </c>
-      <c r="G218" t="s">
-        <v>57</v>
       </c>
       <c r="J218">
         <v>10</v>
@@ -16424,10 +16421,10 @@
         <v>44</v>
       </c>
       <c r="F219" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G219" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J219">
         <v>10</v>
@@ -16495,10 +16492,10 @@
         <v>45</v>
       </c>
       <c r="F220" t="s">
+        <v>55</v>
+      </c>
+      <c r="G220" t="s">
         <v>56</v>
-      </c>
-      <c r="G220" t="s">
-        <v>57</v>
       </c>
       <c r="J220">
         <v>10</v>
@@ -16566,10 +16563,10 @@
         <v>45</v>
       </c>
       <c r="F221" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G221" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J221">
         <v>10</v>
@@ -16637,10 +16634,10 @@
         <v>46</v>
       </c>
       <c r="F222" t="s">
+        <v>55</v>
+      </c>
+      <c r="G222" t="s">
         <v>56</v>
-      </c>
-      <c r="G222" t="s">
-        <v>57</v>
       </c>
       <c r="J222">
         <v>10</v>
@@ -16708,10 +16705,10 @@
         <v>46</v>
       </c>
       <c r="F223" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G223" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J223">
         <v>10</v>
@@ -16779,10 +16776,10 @@
         <v>47</v>
       </c>
       <c r="F224" t="s">
+        <v>55</v>
+      </c>
+      <c r="G224" t="s">
         <v>56</v>
-      </c>
-      <c r="G224" t="s">
-        <v>57</v>
       </c>
       <c r="J224">
         <v>10</v>
@@ -16850,10 +16847,10 @@
         <v>47</v>
       </c>
       <c r="F225" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G225" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J225">
         <v>10</v>
@@ -16921,13 +16918,13 @@
         <v>48</v>
       </c>
       <c r="E226" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F226" t="s">
+        <v>55</v>
+      </c>
+      <c r="G226" t="s">
         <v>56</v>
-      </c>
-      <c r="G226" t="s">
-        <v>57</v>
       </c>
       <c r="J226">
         <v>10</v>
@@ -16995,13 +16992,13 @@
         <v>48</v>
       </c>
       <c r="E227" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F227" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G227" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J227">
         <v>10</v>
@@ -17069,13 +17066,13 @@
         <v>49</v>
       </c>
       <c r="E228" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F228" t="s">
+        <v>55</v>
+      </c>
+      <c r="G228" t="s">
         <v>56</v>
-      </c>
-      <c r="G228" t="s">
-        <v>57</v>
       </c>
       <c r="J228">
         <v>10</v>
@@ -17143,13 +17140,13 @@
         <v>49</v>
       </c>
       <c r="E229" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F229" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G229" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J229">
         <v>10</v>
@@ -17217,13 +17214,13 @@
         <v>50</v>
       </c>
       <c r="E230" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F230" t="s">
+        <v>55</v>
+      </c>
+      <c r="G230" t="s">
         <v>56</v>
-      </c>
-      <c r="G230" t="s">
-        <v>57</v>
       </c>
       <c r="J230">
         <v>10</v>
@@ -17291,13 +17288,13 @@
         <v>50</v>
       </c>
       <c r="E231" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F231" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G231" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J231">
         <v>10</v>
@@ -17362,16 +17359,16 @@
         <v>39</v>
       </c>
       <c r="D232" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E232" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F232" t="s">
+        <v>55</v>
+      </c>
+      <c r="G232" t="s">
         <v>56</v>
-      </c>
-      <c r="G232" t="s">
-        <v>57</v>
       </c>
       <c r="J232">
         <v>10</v>
@@ -17436,16 +17433,16 @@
         <v>39</v>
       </c>
       <c r="D233" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E233" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F233" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G233" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J233">
         <v>10</v>
@@ -17513,10 +17510,10 @@
         <v>44</v>
       </c>
       <c r="F234" t="s">
+        <v>55</v>
+      </c>
+      <c r="G234" t="s">
         <v>56</v>
-      </c>
-      <c r="G234" t="s">
-        <v>57</v>
       </c>
       <c r="J234">
         <v>10</v>
@@ -17584,10 +17581,10 @@
         <v>44</v>
       </c>
       <c r="F235" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G235" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J235">
         <v>10</v>
@@ -17655,10 +17652,10 @@
         <v>45</v>
       </c>
       <c r="F236" t="s">
+        <v>55</v>
+      </c>
+      <c r="G236" t="s">
         <v>56</v>
-      </c>
-      <c r="G236" t="s">
-        <v>57</v>
       </c>
       <c r="J236">
         <v>10</v>
@@ -17726,10 +17723,10 @@
         <v>45</v>
       </c>
       <c r="F237" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G237" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J237">
         <v>10</v>
@@ -17797,10 +17794,10 @@
         <v>46</v>
       </c>
       <c r="F238" t="s">
+        <v>55</v>
+      </c>
+      <c r="G238" t="s">
         <v>56</v>
-      </c>
-      <c r="G238" t="s">
-        <v>57</v>
       </c>
       <c r="J238">
         <v>10</v>
@@ -17868,10 +17865,10 @@
         <v>46</v>
       </c>
       <c r="F239" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G239" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J239">
         <v>10</v>
@@ -17939,10 +17936,10 @@
         <v>47</v>
       </c>
       <c r="F240" t="s">
+        <v>55</v>
+      </c>
+      <c r="G240" t="s">
         <v>56</v>
-      </c>
-      <c r="G240" t="s">
-        <v>57</v>
       </c>
       <c r="J240">
         <v>10</v>
@@ -18010,10 +18007,10 @@
         <v>47</v>
       </c>
       <c r="F241" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G241" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J241">
         <v>10</v>
@@ -18081,13 +18078,13 @@
         <v>48</v>
       </c>
       <c r="E242" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F242" t="s">
+        <v>55</v>
+      </c>
+      <c r="G242" t="s">
         <v>56</v>
-      </c>
-      <c r="G242" t="s">
-        <v>57</v>
       </c>
       <c r="J242">
         <v>10</v>
@@ -18155,13 +18152,13 @@
         <v>48</v>
       </c>
       <c r="E243" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F243" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G243" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J243">
         <v>10</v>
@@ -18229,13 +18226,13 @@
         <v>49</v>
       </c>
       <c r="E244" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F244" t="s">
+        <v>55</v>
+      </c>
+      <c r="G244" t="s">
         <v>56</v>
-      </c>
-      <c r="G244" t="s">
-        <v>57</v>
       </c>
       <c r="J244">
         <v>10</v>
@@ -18303,13 +18300,13 @@
         <v>49</v>
       </c>
       <c r="E245" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F245" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G245" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J245">
         <v>10</v>
@@ -18377,13 +18374,13 @@
         <v>50</v>
       </c>
       <c r="E246" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F246" t="s">
+        <v>55</v>
+      </c>
+      <c r="G246" t="s">
         <v>56</v>
-      </c>
-      <c r="G246" t="s">
-        <v>57</v>
       </c>
       <c r="J246">
         <v>10</v>
@@ -18451,13 +18448,13 @@
         <v>50</v>
       </c>
       <c r="E247" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F247" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G247" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J247">
         <v>10</v>
@@ -18522,16 +18519,16 @@
         <v>39</v>
       </c>
       <c r="D248" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E248" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F248" t="s">
+        <v>55</v>
+      </c>
+      <c r="G248" t="s">
         <v>56</v>
-      </c>
-      <c r="G248" t="s">
-        <v>57</v>
       </c>
       <c r="J248">
         <v>10</v>
@@ -18596,16 +18593,16 @@
         <v>39</v>
       </c>
       <c r="D249" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E249" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F249" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G249" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J249">
         <v>10</v>
@@ -18673,10 +18670,10 @@
         <v>44</v>
       </c>
       <c r="F250" t="s">
+        <v>55</v>
+      </c>
+      <c r="G250" t="s">
         <v>56</v>
-      </c>
-      <c r="G250" t="s">
-        <v>57</v>
       </c>
       <c r="J250">
         <v>10</v>
@@ -18744,10 +18741,10 @@
         <v>44</v>
       </c>
       <c r="F251" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G251" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J251">
         <v>10</v>
@@ -18815,10 +18812,10 @@
         <v>45</v>
       </c>
       <c r="F252" t="s">
+        <v>55</v>
+      </c>
+      <c r="G252" t="s">
         <v>56</v>
-      </c>
-      <c r="G252" t="s">
-        <v>57</v>
       </c>
       <c r="J252">
         <v>10</v>
@@ -18886,10 +18883,10 @@
         <v>45</v>
       </c>
       <c r="F253" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G253" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J253">
         <v>10</v>
@@ -18957,10 +18954,10 @@
         <v>46</v>
       </c>
       <c r="F254" t="s">
+        <v>55</v>
+      </c>
+      <c r="G254" t="s">
         <v>56</v>
-      </c>
-      <c r="G254" t="s">
-        <v>57</v>
       </c>
       <c r="J254">
         <v>10</v>
@@ -19028,10 +19025,10 @@
         <v>46</v>
       </c>
       <c r="F255" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G255" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J255">
         <v>10</v>
@@ -19099,10 +19096,10 @@
         <v>47</v>
       </c>
       <c r="F256" t="s">
+        <v>55</v>
+      </c>
+      <c r="G256" t="s">
         <v>56</v>
-      </c>
-      <c r="G256" t="s">
-        <v>57</v>
       </c>
       <c r="J256">
         <v>10</v>
@@ -19170,10 +19167,10 @@
         <v>47</v>
       </c>
       <c r="F257" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G257" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J257">
         <v>10</v>
@@ -19241,13 +19238,13 @@
         <v>48</v>
       </c>
       <c r="E258" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F258" t="s">
+        <v>55</v>
+      </c>
+      <c r="G258" t="s">
         <v>56</v>
-      </c>
-      <c r="G258" t="s">
-        <v>57</v>
       </c>
       <c r="J258">
         <v>10</v>
@@ -19315,13 +19312,13 @@
         <v>48</v>
       </c>
       <c r="E259" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F259" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G259" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J259">
         <v>10</v>
@@ -19389,13 +19386,13 @@
         <v>49</v>
       </c>
       <c r="E260" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F260" t="s">
+        <v>55</v>
+      </c>
+      <c r="G260" t="s">
         <v>56</v>
-      </c>
-      <c r="G260" t="s">
-        <v>57</v>
       </c>
       <c r="J260">
         <v>10</v>
@@ -19463,13 +19460,13 @@
         <v>49</v>
       </c>
       <c r="E261" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F261" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G261" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J261">
         <v>10</v>
@@ -19537,13 +19534,13 @@
         <v>50</v>
       </c>
       <c r="E262" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F262" t="s">
+        <v>55</v>
+      </c>
+      <c r="G262" t="s">
         <v>56</v>
-      </c>
-      <c r="G262" t="s">
-        <v>57</v>
       </c>
       <c r="J262">
         <v>10</v>
@@ -19611,13 +19608,13 @@
         <v>50</v>
       </c>
       <c r="E263" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F263" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G263" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J263">
         <v>10</v>
@@ -19682,16 +19679,16 @@
         <v>39</v>
       </c>
       <c r="D264" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E264" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F264" t="s">
+        <v>55</v>
+      </c>
+      <c r="G264" t="s">
         <v>56</v>
-      </c>
-      <c r="G264" t="s">
-        <v>57</v>
       </c>
       <c r="J264">
         <v>10</v>
@@ -19756,16 +19753,16 @@
         <v>39</v>
       </c>
       <c r="D265" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E265" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F265" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G265" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J265">
         <v>10</v>
@@ -19833,10 +19830,10 @@
         <v>44</v>
       </c>
       <c r="F266" t="s">
+        <v>55</v>
+      </c>
+      <c r="G266" t="s">
         <v>56</v>
-      </c>
-      <c r="G266" t="s">
-        <v>57</v>
       </c>
       <c r="J266">
         <v>10</v>
@@ -19904,10 +19901,10 @@
         <v>44</v>
       </c>
       <c r="F267" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G267" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J267">
         <v>10</v>
@@ -19975,10 +19972,10 @@
         <v>45</v>
       </c>
       <c r="F268" t="s">
+        <v>55</v>
+      </c>
+      <c r="G268" t="s">
         <v>56</v>
-      </c>
-      <c r="G268" t="s">
-        <v>57</v>
       </c>
       <c r="J268">
         <v>10</v>
@@ -20046,10 +20043,10 @@
         <v>45</v>
       </c>
       <c r="F269" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G269" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J269">
         <v>10</v>
@@ -20117,10 +20114,10 @@
         <v>46</v>
       </c>
       <c r="F270" t="s">
+        <v>55</v>
+      </c>
+      <c r="G270" t="s">
         <v>56</v>
-      </c>
-      <c r="G270" t="s">
-        <v>57</v>
       </c>
       <c r="J270">
         <v>10</v>
@@ -20188,10 +20185,10 @@
         <v>46</v>
       </c>
       <c r="F271" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G271" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J271">
         <v>10</v>
@@ -20259,10 +20256,10 @@
         <v>47</v>
       </c>
       <c r="F272" t="s">
+        <v>55</v>
+      </c>
+      <c r="G272" t="s">
         <v>56</v>
-      </c>
-      <c r="G272" t="s">
-        <v>57</v>
       </c>
       <c r="J272">
         <v>10</v>
@@ -20330,10 +20327,10 @@
         <v>47</v>
       </c>
       <c r="F273" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G273" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J273">
         <v>10</v>
@@ -20401,13 +20398,13 @@
         <v>48</v>
       </c>
       <c r="E274" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F274" t="s">
+        <v>55</v>
+      </c>
+      <c r="G274" t="s">
         <v>56</v>
-      </c>
-      <c r="G274" t="s">
-        <v>57</v>
       </c>
       <c r="J274">
         <v>10</v>
@@ -20475,13 +20472,13 @@
         <v>48</v>
       </c>
       <c r="E275" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F275" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G275" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J275">
         <v>10</v>
@@ -20549,13 +20546,13 @@
         <v>49</v>
       </c>
       <c r="E276" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F276" t="s">
+        <v>55</v>
+      </c>
+      <c r="G276" t="s">
         <v>56</v>
-      </c>
-      <c r="G276" t="s">
-        <v>57</v>
       </c>
       <c r="J276">
         <v>10</v>
@@ -20623,13 +20620,13 @@
         <v>49</v>
       </c>
       <c r="E277" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F277" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G277" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J277">
         <v>10</v>
@@ -20697,13 +20694,13 @@
         <v>50</v>
       </c>
       <c r="E278" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F278" t="s">
+        <v>55</v>
+      </c>
+      <c r="G278" t="s">
         <v>56</v>
-      </c>
-      <c r="G278" t="s">
-        <v>57</v>
       </c>
       <c r="J278">
         <v>10</v>
@@ -20771,13 +20768,13 @@
         <v>50</v>
       </c>
       <c r="E279" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F279" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G279" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J279">
         <v>10</v>
@@ -20842,16 +20839,16 @@
         <v>39</v>
       </c>
       <c r="D280" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E280" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F280" t="s">
+        <v>55</v>
+      </c>
+      <c r="G280" t="s">
         <v>56</v>
-      </c>
-      <c r="G280" t="s">
-        <v>57</v>
       </c>
       <c r="J280">
         <v>10</v>
@@ -20916,16 +20913,16 @@
         <v>39</v>
       </c>
       <c r="D281" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E281" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F281" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G281" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J281">
         <v>10</v>
@@ -20993,10 +20990,10 @@
         <v>44</v>
       </c>
       <c r="F282" t="s">
+        <v>55</v>
+      </c>
+      <c r="G282" t="s">
         <v>56</v>
-      </c>
-      <c r="G282" t="s">
-        <v>57</v>
       </c>
       <c r="J282">
         <v>10</v>
@@ -21064,10 +21061,10 @@
         <v>44</v>
       </c>
       <c r="F283" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G283" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J283">
         <v>10</v>
@@ -21135,10 +21132,10 @@
         <v>45</v>
       </c>
       <c r="F284" t="s">
+        <v>55</v>
+      </c>
+      <c r="G284" t="s">
         <v>56</v>
-      </c>
-      <c r="G284" t="s">
-        <v>57</v>
       </c>
       <c r="J284">
         <v>10</v>
@@ -21206,10 +21203,10 @@
         <v>45</v>
       </c>
       <c r="F285" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G285" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J285">
         <v>10</v>
@@ -21277,10 +21274,10 @@
         <v>46</v>
       </c>
       <c r="F286" t="s">
+        <v>55</v>
+      </c>
+      <c r="G286" t="s">
         <v>56</v>
-      </c>
-      <c r="G286" t="s">
-        <v>57</v>
       </c>
       <c r="J286">
         <v>10</v>
@@ -21348,10 +21345,10 @@
         <v>46</v>
       </c>
       <c r="F287" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G287" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J287">
         <v>10</v>
@@ -21419,10 +21416,10 @@
         <v>47</v>
       </c>
       <c r="F288" t="s">
+        <v>55</v>
+      </c>
+      <c r="G288" t="s">
         <v>56</v>
-      </c>
-      <c r="G288" t="s">
-        <v>57</v>
       </c>
       <c r="J288">
         <v>10</v>
@@ -21490,10 +21487,10 @@
         <v>47</v>
       </c>
       <c r="F289" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G289" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J289">
         <v>10</v>
@@ -21561,13 +21558,13 @@
         <v>48</v>
       </c>
       <c r="E290" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F290" t="s">
+        <v>55</v>
+      </c>
+      <c r="G290" t="s">
         <v>56</v>
-      </c>
-      <c r="G290" t="s">
-        <v>57</v>
       </c>
       <c r="J290">
         <v>10</v>
@@ -21635,13 +21632,13 @@
         <v>48</v>
       </c>
       <c r="E291" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F291" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G291" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J291">
         <v>10</v>
@@ -21709,13 +21706,13 @@
         <v>49</v>
       </c>
       <c r="E292" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F292" t="s">
+        <v>55</v>
+      </c>
+      <c r="G292" t="s">
         <v>56</v>
-      </c>
-      <c r="G292" t="s">
-        <v>57</v>
       </c>
       <c r="J292">
         <v>10</v>
@@ -21783,13 +21780,13 @@
         <v>49</v>
       </c>
       <c r="E293" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F293" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G293" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J293">
         <v>10</v>
@@ -21857,13 +21854,13 @@
         <v>50</v>
       </c>
       <c r="E294" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F294" t="s">
+        <v>55</v>
+      </c>
+      <c r="G294" t="s">
         <v>56</v>
-      </c>
-      <c r="G294" t="s">
-        <v>57</v>
       </c>
       <c r="J294">
         <v>10</v>
@@ -21931,13 +21928,13 @@
         <v>50</v>
       </c>
       <c r="E295" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F295" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G295" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J295">
         <v>10</v>
@@ -22002,16 +21999,16 @@
         <v>39</v>
       </c>
       <c r="D296" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E296" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F296" t="s">
+        <v>55</v>
+      </c>
+      <c r="G296" t="s">
         <v>56</v>
-      </c>
-      <c r="G296" t="s">
-        <v>57</v>
       </c>
       <c r="J296">
         <v>10</v>
@@ -22076,16 +22073,16 @@
         <v>39</v>
       </c>
       <c r="D297" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E297" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F297" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G297" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J297">
         <v>10</v>
@@ -22153,10 +22150,10 @@
         <v>44</v>
       </c>
       <c r="F298" t="s">
+        <v>55</v>
+      </c>
+      <c r="G298" t="s">
         <v>56</v>
-      </c>
-      <c r="G298" t="s">
-        <v>57</v>
       </c>
       <c r="J298">
         <v>10</v>
@@ -22224,10 +22221,10 @@
         <v>44</v>
       </c>
       <c r="F299" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G299" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J299">
         <v>10</v>
@@ -22295,10 +22292,10 @@
         <v>45</v>
       </c>
       <c r="F300" t="s">
+        <v>55</v>
+      </c>
+      <c r="G300" t="s">
         <v>56</v>
-      </c>
-      <c r="G300" t="s">
-        <v>57</v>
       </c>
       <c r="J300">
         <v>10</v>
@@ -22366,10 +22363,10 @@
         <v>45</v>
       </c>
       <c r="F301" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G301" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J301">
         <v>10</v>
@@ -22437,10 +22434,10 @@
         <v>46</v>
       </c>
       <c r="F302" t="s">
+        <v>55</v>
+      </c>
+      <c r="G302" t="s">
         <v>56</v>
-      </c>
-      <c r="G302" t="s">
-        <v>57</v>
       </c>
       <c r="J302">
         <v>10</v>
@@ -22508,10 +22505,10 @@
         <v>46</v>
       </c>
       <c r="F303" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G303" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J303">
         <v>10</v>
@@ -22579,10 +22576,10 @@
         <v>47</v>
       </c>
       <c r="F304" t="s">
+        <v>55</v>
+      </c>
+      <c r="G304" t="s">
         <v>56</v>
-      </c>
-      <c r="G304" t="s">
-        <v>57</v>
       </c>
       <c r="J304">
         <v>10</v>
@@ -22650,10 +22647,10 @@
         <v>47</v>
       </c>
       <c r="F305" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G305" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J305">
         <v>10</v>
@@ -22721,13 +22718,13 @@
         <v>48</v>
       </c>
       <c r="E306" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F306" t="s">
+        <v>55</v>
+      </c>
+      <c r="G306" t="s">
         <v>56</v>
-      </c>
-      <c r="G306" t="s">
-        <v>57</v>
       </c>
       <c r="J306">
         <v>10</v>
@@ -22795,13 +22792,13 @@
         <v>48</v>
       </c>
       <c r="E307" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F307" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G307" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J307">
         <v>10</v>
@@ -22869,13 +22866,13 @@
         <v>49</v>
       </c>
       <c r="E308" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F308" t="s">
+        <v>55</v>
+      </c>
+      <c r="G308" t="s">
         <v>56</v>
-      </c>
-      <c r="G308" t="s">
-        <v>57</v>
       </c>
       <c r="J308">
         <v>10</v>
@@ -22943,13 +22940,13 @@
         <v>49</v>
       </c>
       <c r="E309" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F309" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G309" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J309">
         <v>10</v>
@@ -23017,13 +23014,13 @@
         <v>50</v>
       </c>
       <c r="E310" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F310" t="s">
+        <v>55</v>
+      </c>
+      <c r="G310" t="s">
         <v>56</v>
-      </c>
-      <c r="G310" t="s">
-        <v>57</v>
       </c>
       <c r="J310">
         <v>10</v>
@@ -23091,13 +23088,13 @@
         <v>50</v>
       </c>
       <c r="E311" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F311" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G311" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J311">
         <v>10</v>
@@ -23162,16 +23159,16 @@
         <v>40</v>
       </c>
       <c r="D312" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E312" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F312" t="s">
+        <v>55</v>
+      </c>
+      <c r="G312" t="s">
         <v>56</v>
-      </c>
-      <c r="G312" t="s">
-        <v>57</v>
       </c>
       <c r="J312">
         <v>10</v>
@@ -23236,16 +23233,16 @@
         <v>40</v>
       </c>
       <c r="D313" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E313" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F313" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G313" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J313">
         <v>10</v>
@@ -23313,10 +23310,10 @@
         <v>44</v>
       </c>
       <c r="F314" t="s">
+        <v>55</v>
+      </c>
+      <c r="G314" t="s">
         <v>56</v>
-      </c>
-      <c r="G314" t="s">
-        <v>57</v>
       </c>
       <c r="J314">
         <v>10</v>
@@ -23384,10 +23381,10 @@
         <v>44</v>
       </c>
       <c r="F315" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G315" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J315">
         <v>10</v>
@@ -23455,10 +23452,10 @@
         <v>45</v>
       </c>
       <c r="F316" t="s">
+        <v>55</v>
+      </c>
+      <c r="G316" t="s">
         <v>56</v>
-      </c>
-      <c r="G316" t="s">
-        <v>57</v>
       </c>
       <c r="J316">
         <v>10</v>
@@ -23526,10 +23523,10 @@
         <v>45</v>
       </c>
       <c r="F317" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G317" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J317">
         <v>10</v>
@@ -23597,10 +23594,10 @@
         <v>46</v>
       </c>
       <c r="F318" t="s">
+        <v>55</v>
+      </c>
+      <c r="G318" t="s">
         <v>56</v>
-      </c>
-      <c r="G318" t="s">
-        <v>57</v>
       </c>
       <c r="J318">
         <v>10</v>
@@ -23668,10 +23665,10 @@
         <v>46</v>
       </c>
       <c r="F319" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G319" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J319">
         <v>10</v>
@@ -23739,10 +23736,10 @@
         <v>47</v>
       </c>
       <c r="F320" t="s">
+        <v>55</v>
+      </c>
+      <c r="G320" t="s">
         <v>56</v>
-      </c>
-      <c r="G320" t="s">
-        <v>57</v>
       </c>
       <c r="J320">
         <v>10</v>
@@ -23810,10 +23807,10 @@
         <v>47</v>
       </c>
       <c r="F321" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G321" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J321">
         <v>10</v>
@@ -23881,13 +23878,13 @@
         <v>48</v>
       </c>
       <c r="E322" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F322" t="s">
+        <v>55</v>
+      </c>
+      <c r="G322" t="s">
         <v>56</v>
-      </c>
-      <c r="G322" t="s">
-        <v>57</v>
       </c>
       <c r="J322">
         <v>10</v>
@@ -23955,13 +23952,13 @@
         <v>48</v>
       </c>
       <c r="E323" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F323" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G323" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J323">
         <v>10</v>
@@ -24029,13 +24026,13 @@
         <v>49</v>
       </c>
       <c r="E324" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F324" t="s">
+        <v>55</v>
+      </c>
+      <c r="G324" t="s">
         <v>56</v>
-      </c>
-      <c r="G324" t="s">
-        <v>57</v>
       </c>
       <c r="J324">
         <v>10</v>
@@ -24103,13 +24100,13 @@
         <v>49</v>
       </c>
       <c r="E325" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F325" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G325" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J325">
         <v>10</v>
@@ -24177,13 +24174,13 @@
         <v>50</v>
       </c>
       <c r="E326" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F326" t="s">
+        <v>55</v>
+      </c>
+      <c r="G326" t="s">
         <v>56</v>
-      </c>
-      <c r="G326" t="s">
-        <v>57</v>
       </c>
       <c r="J326">
         <v>10</v>
@@ -24251,13 +24248,13 @@
         <v>50</v>
       </c>
       <c r="E327" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F327" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G327" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J327">
         <v>10</v>
@@ -24322,16 +24319,16 @@
         <v>41</v>
       </c>
       <c r="D328" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E328" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F328" t="s">
+        <v>55</v>
+      </c>
+      <c r="G328" t="s">
         <v>56</v>
-      </c>
-      <c r="G328" t="s">
-        <v>57</v>
       </c>
       <c r="J328">
         <v>10</v>
@@ -24396,16 +24393,16 @@
         <v>41</v>
       </c>
       <c r="D329" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E329" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F329" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G329" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J329">
         <v>10</v>
@@ -24473,10 +24470,10 @@
         <v>44</v>
       </c>
       <c r="F330" t="s">
+        <v>55</v>
+      </c>
+      <c r="G330" t="s">
         <v>56</v>
-      </c>
-      <c r="G330" t="s">
-        <v>57</v>
       </c>
       <c r="J330">
         <v>10</v>
@@ -24544,10 +24541,10 @@
         <v>44</v>
       </c>
       <c r="F331" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G331" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J331">
         <v>10</v>
@@ -24615,10 +24612,10 @@
         <v>45</v>
       </c>
       <c r="F332" t="s">
+        <v>55</v>
+      </c>
+      <c r="G332" t="s">
         <v>56</v>
-      </c>
-      <c r="G332" t="s">
-        <v>57</v>
       </c>
       <c r="J332">
         <v>10</v>
@@ -24686,10 +24683,10 @@
         <v>45</v>
       </c>
       <c r="F333" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G333" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J333">
         <v>10</v>
@@ -24757,10 +24754,10 @@
         <v>46</v>
       </c>
       <c r="F334" t="s">
+        <v>55</v>
+      </c>
+      <c r="G334" t="s">
         <v>56</v>
-      </c>
-      <c r="G334" t="s">
-        <v>57</v>
       </c>
       <c r="J334">
         <v>10</v>
@@ -24828,10 +24825,10 @@
         <v>46</v>
       </c>
       <c r="F335" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G335" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J335">
         <v>10</v>
@@ -24899,10 +24896,10 @@
         <v>47</v>
       </c>
       <c r="F336" t="s">
+        <v>55</v>
+      </c>
+      <c r="G336" t="s">
         <v>56</v>
-      </c>
-      <c r="G336" t="s">
-        <v>57</v>
       </c>
       <c r="J336">
         <v>10</v>
@@ -24970,10 +24967,10 @@
         <v>47</v>
       </c>
       <c r="F337" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G337" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J337">
         <v>10</v>
@@ -25041,13 +25038,13 @@
         <v>48</v>
       </c>
       <c r="E338" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F338" t="s">
+        <v>55</v>
+      </c>
+      <c r="G338" t="s">
         <v>56</v>
-      </c>
-      <c r="G338" t="s">
-        <v>57</v>
       </c>
       <c r="J338">
         <v>10</v>
@@ -25115,13 +25112,13 @@
         <v>48</v>
       </c>
       <c r="E339" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F339" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G339" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J339">
         <v>10</v>
@@ -25189,13 +25186,13 @@
         <v>49</v>
       </c>
       <c r="E340" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F340" t="s">
+        <v>55</v>
+      </c>
+      <c r="G340" t="s">
         <v>56</v>
-      </c>
-      <c r="G340" t="s">
-        <v>57</v>
       </c>
       <c r="J340">
         <v>10</v>
@@ -25263,13 +25260,13 @@
         <v>49</v>
       </c>
       <c r="E341" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F341" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G341" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J341">
         <v>10</v>
@@ -25337,13 +25334,13 @@
         <v>50</v>
       </c>
       <c r="E342" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F342" t="s">
+        <v>55</v>
+      </c>
+      <c r="G342" t="s">
         <v>56</v>
-      </c>
-      <c r="G342" t="s">
-        <v>57</v>
       </c>
       <c r="J342">
         <v>10</v>
@@ -25411,13 +25408,13 @@
         <v>50</v>
       </c>
       <c r="E343" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F343" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G343" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J343">
         <v>10</v>
@@ -25482,16 +25479,16 @@
         <v>42</v>
       </c>
       <c r="D344" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E344" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F344" t="s">
+        <v>55</v>
+      </c>
+      <c r="G344" t="s">
         <v>56</v>
-      </c>
-      <c r="G344" t="s">
-        <v>57</v>
       </c>
       <c r="J344">
         <v>10</v>
@@ -25556,16 +25553,16 @@
         <v>42</v>
       </c>
       <c r="D345" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E345" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F345" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G345" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J345">
         <v>10</v>
@@ -25633,10 +25630,10 @@
         <v>44</v>
       </c>
       <c r="F346" t="s">
+        <v>55</v>
+      </c>
+      <c r="G346" t="s">
         <v>56</v>
-      </c>
-      <c r="G346" t="s">
-        <v>57</v>
       </c>
       <c r="J346">
         <v>10</v>
@@ -25704,10 +25701,10 @@
         <v>44</v>
       </c>
       <c r="F347" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G347" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J347">
         <v>10</v>
@@ -25775,10 +25772,10 @@
         <v>45</v>
       </c>
       <c r="F348" t="s">
+        <v>55</v>
+      </c>
+      <c r="G348" t="s">
         <v>56</v>
-      </c>
-      <c r="G348" t="s">
-        <v>57</v>
       </c>
       <c r="J348">
         <v>10</v>
@@ -25846,10 +25843,10 @@
         <v>45</v>
       </c>
       <c r="F349" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G349" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J349">
         <v>10</v>
@@ -25917,10 +25914,10 @@
         <v>46</v>
       </c>
       <c r="F350" t="s">
+        <v>55</v>
+      </c>
+      <c r="G350" t="s">
         <v>56</v>
-      </c>
-      <c r="G350" t="s">
-        <v>57</v>
       </c>
       <c r="J350">
         <v>10</v>
@@ -25988,10 +25985,10 @@
         <v>46</v>
       </c>
       <c r="F351" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G351" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J351">
         <v>10</v>
@@ -26059,10 +26056,10 @@
         <v>47</v>
       </c>
       <c r="F352" t="s">
+        <v>55</v>
+      </c>
+      <c r="G352" t="s">
         <v>56</v>
-      </c>
-      <c r="G352" t="s">
-        <v>57</v>
       </c>
       <c r="J352">
         <v>10</v>
@@ -26130,10 +26127,10 @@
         <v>47</v>
       </c>
       <c r="F353" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G353" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J353">
         <v>10</v>
@@ -26201,10 +26198,10 @@
         <v>48</v>
       </c>
       <c r="F354" t="s">
+        <v>55</v>
+      </c>
+      <c r="G354" t="s">
         <v>56</v>
-      </c>
-      <c r="G354" t="s">
-        <v>57</v>
       </c>
       <c r="J354">
         <v>10</v>
@@ -26272,10 +26269,10 @@
         <v>48</v>
       </c>
       <c r="F355" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G355" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J355">
         <v>10</v>
@@ -26343,10 +26340,10 @@
         <v>49</v>
       </c>
       <c r="F356" t="s">
+        <v>55</v>
+      </c>
+      <c r="G356" t="s">
         <v>56</v>
-      </c>
-      <c r="G356" t="s">
-        <v>57</v>
       </c>
       <c r="J356">
         <v>10</v>
@@ -26414,10 +26411,10 @@
         <v>49</v>
       </c>
       <c r="F357" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G357" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J357">
         <v>10</v>

--- a/CH4_reducido.xlsx
+++ b/CH4_reducido.xlsx
@@ -699,7 +699,7 @@
         <v>0.131</v>
       </c>
       <c r="Z2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA2">
         <v>100</v>
@@ -770,7 +770,7 @@
         <v>0.041</v>
       </c>
       <c r="Z3">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA3">
         <v>100</v>
@@ -841,7 +841,7 @@
         <v>0.026</v>
       </c>
       <c r="Z4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA4">
         <v>100</v>
@@ -912,7 +912,7 @@
         <v>0.014</v>
       </c>
       <c r="Z5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA5">
         <v>100</v>
@@ -983,7 +983,7 @@
         <v>0.017</v>
       </c>
       <c r="Z6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA6">
         <v>100</v>
@@ -1054,7 +1054,7 @@
         <v>0.011</v>
       </c>
       <c r="Z7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA7">
         <v>100</v>
@@ -1128,7 +1128,7 @@
         <v>0.003</v>
       </c>
       <c r="Z8">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA8">
         <v>100</v>
@@ -1202,7 +1202,7 @@
         <v>0.004</v>
       </c>
       <c r="Z9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA9">
         <v>100</v>
@@ -1276,7 +1276,7 @@
         <v>0.00287</v>
       </c>
       <c r="Z10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA10">
         <v>100</v>
@@ -1350,7 +1350,7 @@
         <v>0.00508</v>
       </c>
       <c r="Z11">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA11">
         <v>100</v>
@@ -1424,7 +1424,7 @@
         <v>0.00287</v>
       </c>
       <c r="Z12">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA12">
         <v>100</v>
@@ -1498,7 +1498,7 @@
         <v>0.00508</v>
       </c>
       <c r="Z13">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA13">
         <v>100</v>
@@ -1572,7 +1572,7 @@
         <v>0.00287</v>
       </c>
       <c r="Z14">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA14">
         <v>100</v>
@@ -1646,7 +1646,7 @@
         <v>0.00508</v>
       </c>
       <c r="Z15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA15">
         <v>100</v>
@@ -1720,7 +1720,7 @@
         <v>0.00287</v>
       </c>
       <c r="Z16">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA16">
         <v>100</v>
@@ -1794,7 +1794,7 @@
         <v>0.00508</v>
       </c>
       <c r="Z17">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA17">
         <v>100</v>
@@ -1865,7 +1865,7 @@
         <v>0.028</v>
       </c>
       <c r="Z18">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA18">
         <v>100</v>
@@ -1936,7 +1936,7 @@
         <v>0.008</v>
       </c>
       <c r="Z19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA19">
         <v>100</v>
@@ -2007,7 +2007,7 @@
         <v>0.011</v>
       </c>
       <c r="Z20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA20">
         <v>100</v>
@@ -2078,7 +2078,7 @@
         <v>0.003</v>
       </c>
       <c r="Z21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA21">
         <v>100</v>
@@ -2149,7 +2149,7 @@
         <v>0.007</v>
       </c>
       <c r="Z22">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA22">
         <v>100</v>
@@ -2220,7 +2220,7 @@
         <v>0.002</v>
       </c>
       <c r="Z23">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA23">
         <v>100</v>
@@ -2294,7 +2294,7 @@
         <v>0.003</v>
       </c>
       <c r="Z24">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA24">
         <v>100</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA25">
         <v>100</v>
@@ -2442,7 +2442,7 @@
         <v>0.0011</v>
       </c>
       <c r="Z26">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA26">
         <v>100</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA27">
         <v>100</v>
@@ -2590,7 +2590,7 @@
         <v>7.499999999999999E-05</v>
       </c>
       <c r="Z28">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA28">
         <v>100</v>
@@ -2664,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA29">
         <v>100</v>
@@ -2738,7 +2738,7 @@
         <v>7.499999999999999E-05</v>
       </c>
       <c r="Z30">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA30">
         <v>100</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA31">
         <v>100</v>
@@ -2886,7 +2886,7 @@
         <v>7.499999999999999E-05</v>
       </c>
       <c r="Z32">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA32">
         <v>100</v>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA33">
         <v>100</v>
@@ -3034,7 +3034,7 @@
         <v>7.499999999999999E-05</v>
       </c>
       <c r="Z34">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA34">
         <v>100</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA35">
         <v>100</v>
@@ -3182,7 +3182,7 @@
         <v>7.499999999999999E-05</v>
       </c>
       <c r="Z36">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA36">
         <v>100</v>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA37">
         <v>100</v>
@@ -3327,7 +3327,7 @@
         <v>0.131</v>
       </c>
       <c r="Z38">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA38">
         <v>100</v>
@@ -3398,7 +3398,7 @@
         <v>0.041</v>
       </c>
       <c r="Z39">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA39">
         <v>100</v>
@@ -3469,7 +3469,7 @@
         <v>0.026</v>
       </c>
       <c r="Z40">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA40">
         <v>100</v>
@@ -3540,7 +3540,7 @@
         <v>0.014</v>
       </c>
       <c r="Z41">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA41">
         <v>100</v>
@@ -3611,7 +3611,7 @@
         <v>0.017</v>
       </c>
       <c r="Z42">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA42">
         <v>100</v>
@@ -3682,7 +3682,7 @@
         <v>0.011</v>
       </c>
       <c r="Z43">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA43">
         <v>100</v>
@@ -3756,7 +3756,7 @@
         <v>0.003</v>
       </c>
       <c r="Z44">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA44">
         <v>100</v>
@@ -3830,7 +3830,7 @@
         <v>0.004</v>
       </c>
       <c r="Z45">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA45">
         <v>100</v>
@@ -3904,7 +3904,7 @@
         <v>0.002</v>
       </c>
       <c r="Z46">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA46">
         <v>100</v>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA47">
         <v>100</v>
@@ -4052,7 +4052,7 @@
         <v>0.002</v>
       </c>
       <c r="Z48">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA48">
         <v>100</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA49">
         <v>100</v>
@@ -4200,7 +4200,7 @@
         <v>0.002</v>
       </c>
       <c r="Z50">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA50">
         <v>100</v>
@@ -4274,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA51">
         <v>100</v>
@@ -4348,7 +4348,7 @@
         <v>0.002</v>
       </c>
       <c r="Z52">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA52">
         <v>100</v>
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="Z53">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA53">
         <v>100</v>
@@ -4493,7 +4493,7 @@
         <v>0.028</v>
       </c>
       <c r="Z54">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA54">
         <v>100</v>
@@ -4564,7 +4564,7 @@
         <v>0.008</v>
       </c>
       <c r="Z55">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA55">
         <v>100</v>
@@ -4635,7 +4635,7 @@
         <v>0.011</v>
       </c>
       <c r="Z56">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA56">
         <v>100</v>
@@ -4706,7 +4706,7 @@
         <v>0.003</v>
       </c>
       <c r="Z57">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA57">
         <v>100</v>
@@ -4777,7 +4777,7 @@
         <v>0.007</v>
       </c>
       <c r="Z58">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA58">
         <v>100</v>
@@ -4848,7 +4848,7 @@
         <v>0.002</v>
       </c>
       <c r="Z59">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA59">
         <v>100</v>
@@ -4922,7 +4922,7 @@
         <v>0.003</v>
       </c>
       <c r="Z60">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA60">
         <v>100</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="Z61">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA61">
         <v>100</v>
@@ -5070,7 +5070,7 @@
         <v>0.0011</v>
       </c>
       <c r="Z62">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA62">
         <v>100</v>
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="Z63">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA63">
         <v>100</v>
@@ -5218,7 +5218,7 @@
         <v>7.499999999999999E-06</v>
       </c>
       <c r="Z64">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA64">
         <v>100</v>
@@ -5292,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="Z65">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA65">
         <v>100</v>
@@ -5366,7 +5366,7 @@
         <v>7.499999999999999E-06</v>
       </c>
       <c r="Z66">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA66">
         <v>100</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="Z67">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA67">
         <v>100</v>
@@ -5514,7 +5514,7 @@
         <v>7.499999999999999E-06</v>
       </c>
       <c r="Z68">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA68">
         <v>100</v>
@@ -5588,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="Z69">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA69">
         <v>100</v>
@@ -5662,7 +5662,7 @@
         <v>7.499999999999999E-06</v>
       </c>
       <c r="Z70">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA70">
         <v>100</v>
@@ -5736,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="Z71">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA71">
         <v>100</v>
@@ -5810,7 +5810,7 @@
         <v>7.499999999999999E-06</v>
       </c>
       <c r="Z72">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA72">
         <v>100</v>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="Z73">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA73">
         <v>100</v>
@@ -5955,7 +5955,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="Z74">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA74">
         <v>90</v>
@@ -6026,7 +6026,7 @@
         <v>0.02</v>
       </c>
       <c r="Z75">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA75">
         <v>90</v>
@@ -6097,7 +6097,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="Z76">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA76">
         <v>90</v>
@@ -6168,7 +6168,7 @@
         <v>0.02</v>
       </c>
       <c r="Z77">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA77">
         <v>90</v>
@@ -6239,7 +6239,7 @@
         <v>0.0544</v>
       </c>
       <c r="Z78">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA78">
         <v>90</v>
@@ -6310,7 +6310,7 @@
         <v>0.0186</v>
       </c>
       <c r="Z79">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA79">
         <v>90</v>
@@ -6381,7 +6381,7 @@
         <v>0.04760000000000001</v>
       </c>
       <c r="Z80">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA80">
         <v>90</v>
@@ -6452,7 +6452,7 @@
         <v>0.0182</v>
       </c>
       <c r="Z81">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA81">
         <v>90</v>
@@ -6526,7 +6526,7 @@
         <v>0.002550000000000002</v>
       </c>
       <c r="Z82">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA82">
         <v>90</v>
@@ -6600,7 +6600,7 @@
         <v>0.001200000000000001</v>
       </c>
       <c r="Z83">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA83">
         <v>90</v>
@@ -6674,7 +6674,7 @@
         <v>0.002550000000000002</v>
       </c>
       <c r="Z84">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA84">
         <v>90</v>
@@ -6748,7 +6748,7 @@
         <v>0.001200000000000001</v>
       </c>
       <c r="Z85">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA85">
         <v>90</v>
@@ -6822,7 +6822,7 @@
         <v>0.002550000000000002</v>
       </c>
       <c r="Z86">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA86">
         <v>90</v>
@@ -6896,7 +6896,7 @@
         <v>0.001200000000000001</v>
       </c>
       <c r="Z87">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA87">
         <v>90</v>
@@ -6970,7 +6970,7 @@
         <v>0.002550000000000002</v>
       </c>
       <c r="Z88">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA88">
         <v>90</v>
@@ -7044,7 +7044,7 @@
         <v>0.001200000000000001</v>
       </c>
       <c r="Z89">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA89">
         <v>90</v>
@@ -7115,7 +7115,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="Z90">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA90">
         <v>90</v>
@@ -7186,7 +7186,7 @@
         <v>0.02</v>
       </c>
       <c r="Z91">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA91">
         <v>90</v>
@@ -7257,7 +7257,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="Z92">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA92">
         <v>90</v>
@@ -7328,7 +7328,7 @@
         <v>0.02</v>
       </c>
       <c r="Z93">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA93">
         <v>90</v>
@@ -7399,7 +7399,7 @@
         <v>0.0544</v>
       </c>
       <c r="Z94">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA94">
         <v>90</v>
@@ -7470,7 +7470,7 @@
         <v>0.0186</v>
       </c>
       <c r="Z95">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA95">
         <v>90</v>
@@ -7541,7 +7541,7 @@
         <v>0.04760000000000001</v>
       </c>
       <c r="Z96">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA96">
         <v>90</v>
@@ -7612,7 +7612,7 @@
         <v>0.0182</v>
       </c>
       <c r="Z97">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA97">
         <v>90</v>
@@ -7686,7 +7686,7 @@
         <v>0.002550000000000002</v>
       </c>
       <c r="Z98">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA98">
         <v>90</v>
@@ -7760,7 +7760,7 @@
         <v>0.001200000000000001</v>
       </c>
       <c r="Z99">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA99">
         <v>90</v>
@@ -7834,7 +7834,7 @@
         <v>0.002550000000000002</v>
       </c>
       <c r="Z100">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA100">
         <v>90</v>
@@ -7908,7 +7908,7 @@
         <v>0.001200000000000001</v>
       </c>
       <c r="Z101">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA101">
         <v>90</v>
@@ -7982,7 +7982,7 @@
         <v>0.002550000000000002</v>
       </c>
       <c r="Z102">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA102">
         <v>90</v>
@@ -8056,7 +8056,7 @@
         <v>0.001200000000000001</v>
       </c>
       <c r="Z103">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA103">
         <v>90</v>
@@ -8130,7 +8130,7 @@
         <v>0.002550000000000002</v>
       </c>
       <c r="Z104">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA104">
         <v>90</v>
@@ -8204,7 +8204,7 @@
         <v>0.001200000000000001</v>
       </c>
       <c r="Z105">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA105">
         <v>90</v>
@@ -8275,7 +8275,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="Z106">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA106">
         <v>90</v>
@@ -8346,7 +8346,7 @@
         <v>0.02</v>
       </c>
       <c r="Z107">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA107">
         <v>90</v>
@@ -8417,7 +8417,7 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="Z108">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA108">
         <v>90</v>
@@ -8488,7 +8488,7 @@
         <v>0.02</v>
       </c>
       <c r="Z109">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA109">
         <v>90</v>
@@ -8559,7 +8559,7 @@
         <v>0.0544</v>
       </c>
       <c r="Z110">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA110">
         <v>90</v>
@@ -8630,7 +8630,7 @@
         <v>0.0186</v>
       </c>
       <c r="Z111">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA111">
         <v>90</v>
@@ -8701,7 +8701,7 @@
         <v>0.04760000000000001</v>
       </c>
       <c r="Z112">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA112">
         <v>90</v>
@@ -8772,7 +8772,7 @@
         <v>0.0182</v>
       </c>
       <c r="Z113">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA113">
         <v>90</v>
@@ -8846,7 +8846,7 @@
         <v>0.002550000000000002</v>
       </c>
       <c r="Z114">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA114">
         <v>90</v>
@@ -8920,7 +8920,7 @@
         <v>0.001200000000000001</v>
       </c>
       <c r="Z115">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA115">
         <v>90</v>
@@ -8994,7 +8994,7 @@
         <v>0.002550000000000002</v>
       </c>
       <c r="Z116">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA116">
         <v>90</v>
@@ -9068,7 +9068,7 @@
         <v>0.001200000000000001</v>
       </c>
       <c r="Z117">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA117">
         <v>90</v>
@@ -9142,7 +9142,7 @@
         <v>0.002550000000000002</v>
       </c>
       <c r="Z118">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA118">
         <v>90</v>
@@ -9216,7 +9216,7 @@
         <v>0.001200000000000001</v>
       </c>
       <c r="Z119">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA119">
         <v>90</v>
@@ -9290,7 +9290,7 @@
         <v>0.002550000000000002</v>
       </c>
       <c r="Z120">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA120">
         <v>90</v>
@@ -9364,7 +9364,7 @@
         <v>0.001200000000000001</v>
       </c>
       <c r="Z121">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA121">
         <v>90</v>
@@ -9435,7 +9435,7 @@
         <v>0.175</v>
       </c>
       <c r="Z122">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA122">
         <v>90</v>
@@ -9506,7 +9506,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z123">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA123">
         <v>90</v>
@@ -9577,7 +9577,7 @@
         <v>0.175</v>
       </c>
       <c r="Z124">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA124">
         <v>90</v>
@@ -9648,7 +9648,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z125">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA125">
         <v>90</v>
@@ -9719,7 +9719,7 @@
         <v>0.112</v>
       </c>
       <c r="Z126">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA126">
         <v>90</v>
@@ -9790,7 +9790,7 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="Z127">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA127">
         <v>90</v>
@@ -9861,7 +9861,7 @@
         <v>0.098</v>
       </c>
       <c r="Z128">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA128">
         <v>90</v>
@@ -9932,7 +9932,7 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="Z129">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA129">
         <v>90</v>
@@ -10006,7 +10006,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z130">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA130">
         <v>90</v>
@@ -10080,7 +10080,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z131">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA131">
         <v>90</v>
@@ -10154,7 +10154,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z132">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA132">
         <v>90</v>
@@ -10228,7 +10228,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z133">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA133">
         <v>90</v>
@@ -10302,7 +10302,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z134">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA134">
         <v>90</v>
@@ -10376,7 +10376,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z135">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA135">
         <v>90</v>
@@ -10450,7 +10450,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z136">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA136">
         <v>90</v>
@@ -10524,7 +10524,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z137">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA137">
         <v>90</v>
@@ -10595,7 +10595,7 @@
         <v>0.175</v>
       </c>
       <c r="Z138">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA138">
         <v>90</v>
@@ -10666,7 +10666,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z139">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA139">
         <v>90</v>
@@ -10737,7 +10737,7 @@
         <v>0.175</v>
       </c>
       <c r="Z140">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA140">
         <v>90</v>
@@ -10808,7 +10808,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z141">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA141">
         <v>90</v>
@@ -10879,7 +10879,7 @@
         <v>0.112</v>
       </c>
       <c r="Z142">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA142">
         <v>90</v>
@@ -10950,7 +10950,7 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="Z143">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA143">
         <v>90</v>
@@ -11021,7 +11021,7 @@
         <v>0.098</v>
       </c>
       <c r="Z144">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA144">
         <v>90</v>
@@ -11092,7 +11092,7 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="Z145">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA145">
         <v>90</v>
@@ -11166,7 +11166,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z146">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA146">
         <v>90</v>
@@ -11240,7 +11240,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z147">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA147">
         <v>90</v>
@@ -11314,7 +11314,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z148">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA148">
         <v>90</v>
@@ -11388,7 +11388,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z149">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA149">
         <v>90</v>
@@ -11462,7 +11462,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z150">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA150">
         <v>90</v>
@@ -11536,7 +11536,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z151">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA151">
         <v>90</v>
@@ -11610,7 +11610,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z152">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA152">
         <v>90</v>
@@ -11684,7 +11684,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z153">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA153">
         <v>90</v>
@@ -11755,7 +11755,7 @@
         <v>0.175</v>
       </c>
       <c r="Z154">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA154">
         <v>90</v>
@@ -11826,7 +11826,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z155">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA155">
         <v>90</v>
@@ -11897,7 +11897,7 @@
         <v>0.175</v>
       </c>
       <c r="Z156">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA156">
         <v>90</v>
@@ -11968,7 +11968,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z157">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA157">
         <v>90</v>
@@ -12039,7 +12039,7 @@
         <v>0.112</v>
       </c>
       <c r="Z158">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA158">
         <v>90</v>
@@ -12110,7 +12110,7 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="Z159">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA159">
         <v>90</v>
@@ -12181,7 +12181,7 @@
         <v>0.098</v>
       </c>
       <c r="Z160">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA160">
         <v>90</v>
@@ -12252,7 +12252,7 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="Z161">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA161">
         <v>90</v>
@@ -12326,7 +12326,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z162">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA162">
         <v>90</v>
@@ -12400,7 +12400,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z163">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA163">
         <v>90</v>
@@ -12474,7 +12474,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z164">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA164">
         <v>90</v>
@@ -12548,7 +12548,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z165">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA165">
         <v>90</v>
@@ -12622,7 +12622,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z166">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA166">
         <v>90</v>
@@ -12696,7 +12696,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z167">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA167">
         <v>90</v>
@@ -12770,7 +12770,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z168">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA168">
         <v>90</v>
@@ -12844,7 +12844,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z169">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA169">
         <v>90</v>
@@ -12915,7 +12915,7 @@
         <v>0.175</v>
       </c>
       <c r="Z170">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA170">
         <v>80</v>
@@ -12986,7 +12986,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z171">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA171">
         <v>80</v>
@@ -13057,7 +13057,7 @@
         <v>0.175</v>
       </c>
       <c r="Z172">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA172">
         <v>80</v>
@@ -13128,7 +13128,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z173">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA173">
         <v>80</v>
@@ -13199,7 +13199,7 @@
         <v>0.112</v>
       </c>
       <c r="Z174">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA174">
         <v>80</v>
@@ -13270,7 +13270,7 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="Z175">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA175">
         <v>80</v>
@@ -13341,7 +13341,7 @@
         <v>0.098</v>
       </c>
       <c r="Z176">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA176">
         <v>80</v>
@@ -13412,7 +13412,7 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="Z177">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA177">
         <v>80</v>
@@ -13486,7 +13486,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z178">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA178">
         <v>80</v>
@@ -13560,7 +13560,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z179">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA179">
         <v>80</v>
@@ -13634,7 +13634,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z180">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA180">
         <v>80</v>
@@ -13708,7 +13708,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z181">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA181">
         <v>80</v>
@@ -13782,7 +13782,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z182">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA182">
         <v>80</v>
@@ -13856,7 +13856,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z183">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA183">
         <v>80</v>
@@ -13930,7 +13930,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z184">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA184">
         <v>80</v>
@@ -14004,7 +14004,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z185">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA185">
         <v>80</v>
@@ -14075,7 +14075,7 @@
         <v>0.175</v>
       </c>
       <c r="Z186">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA186">
         <v>80</v>
@@ -14146,7 +14146,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z187">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA187">
         <v>80</v>
@@ -14217,7 +14217,7 @@
         <v>0.175</v>
       </c>
       <c r="Z188">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA188">
         <v>80</v>
@@ -14288,7 +14288,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z189">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA189">
         <v>80</v>
@@ -14359,7 +14359,7 @@
         <v>0.112</v>
       </c>
       <c r="Z190">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA190">
         <v>80</v>
@@ -14430,7 +14430,7 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="Z191">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA191">
         <v>80</v>
@@ -14501,7 +14501,7 @@
         <v>0.098</v>
       </c>
       <c r="Z192">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA192">
         <v>80</v>
@@ -14572,7 +14572,7 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="Z193">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA193">
         <v>80</v>
@@ -14646,7 +14646,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z194">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA194">
         <v>80</v>
@@ -14720,7 +14720,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z195">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA195">
         <v>80</v>
@@ -14794,7 +14794,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z196">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA196">
         <v>80</v>
@@ -14868,7 +14868,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z197">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA197">
         <v>80</v>
@@ -14942,7 +14942,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z198">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA198">
         <v>80</v>
@@ -15016,7 +15016,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z199">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA199">
         <v>80</v>
@@ -15090,7 +15090,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z200">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA200">
         <v>80</v>
@@ -15164,7 +15164,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z201">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA201">
         <v>80</v>
@@ -15235,7 +15235,7 @@
         <v>0.175</v>
       </c>
       <c r="Z202">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA202">
         <v>80</v>
@@ -15306,7 +15306,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z203">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA203">
         <v>80</v>
@@ -15377,7 +15377,7 @@
         <v>0.175</v>
       </c>
       <c r="Z204">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA204">
         <v>80</v>
@@ -15448,7 +15448,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z205">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA205">
         <v>80</v>
@@ -15519,7 +15519,7 @@
         <v>0.112</v>
       </c>
       <c r="Z206">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA206">
         <v>80</v>
@@ -15590,7 +15590,7 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="Z207">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA207">
         <v>80</v>
@@ -15661,7 +15661,7 @@
         <v>0.098</v>
       </c>
       <c r="Z208">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA208">
         <v>80</v>
@@ -15732,7 +15732,7 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="Z209">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA209">
         <v>80</v>
@@ -15806,7 +15806,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z210">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA210">
         <v>80</v>
@@ -15880,7 +15880,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z211">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA211">
         <v>80</v>
@@ -15954,7 +15954,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z212">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA212">
         <v>80</v>
@@ -16028,7 +16028,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z213">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA213">
         <v>80</v>
@@ -16102,7 +16102,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z214">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA214">
         <v>80</v>
@@ -16176,7 +16176,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z215">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA215">
         <v>80</v>
@@ -16250,7 +16250,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z216">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA216">
         <v>80</v>
@@ -16324,7 +16324,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z217">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA217">
         <v>80</v>
@@ -16395,7 +16395,7 @@
         <v>0.175</v>
       </c>
       <c r="Z218">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA218">
         <v>80</v>
@@ -16466,7 +16466,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z219">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA219">
         <v>80</v>
@@ -16537,7 +16537,7 @@
         <v>0.175</v>
       </c>
       <c r="Z220">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA220">
         <v>80</v>
@@ -16608,7 +16608,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z221">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA221">
         <v>80</v>
@@ -16679,7 +16679,7 @@
         <v>0.112</v>
       </c>
       <c r="Z222">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA222">
         <v>80</v>
@@ -16750,7 +16750,7 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="Z223">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA223">
         <v>80</v>
@@ -16821,7 +16821,7 @@
         <v>0.098</v>
       </c>
       <c r="Z224">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA224">
         <v>80</v>
@@ -16892,7 +16892,7 @@
         <v>0.006999999999999999</v>
       </c>
       <c r="Z225">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA225">
         <v>80</v>
@@ -16966,7 +16966,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z226">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA226">
         <v>80</v>
@@ -17040,7 +17040,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z227">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA227">
         <v>80</v>
@@ -17114,7 +17114,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z228">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA228">
         <v>80</v>
@@ -17188,7 +17188,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z229">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA229">
         <v>80</v>
@@ -17262,7 +17262,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z230">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA230">
         <v>80</v>
@@ -17336,7 +17336,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z231">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA231">
         <v>80</v>
@@ -17410,7 +17410,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z232">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA232">
         <v>80</v>
@@ -17484,7 +17484,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z233">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA233">
         <v>80</v>
@@ -17555,7 +17555,7 @@
         <v>0.175</v>
       </c>
       <c r="Z234">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA234">
         <v>80</v>
@@ -17626,7 +17626,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z235">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA235">
         <v>80</v>
@@ -17697,7 +17697,7 @@
         <v>0.175</v>
       </c>
       <c r="Z236">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA236">
         <v>80</v>
@@ -17768,7 +17768,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z237">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA237">
         <v>80</v>
@@ -17839,7 +17839,7 @@
         <v>0.112</v>
       </c>
       <c r="Z238">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA238">
         <v>80</v>
@@ -17910,7 +17910,7 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="Z239">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA239">
         <v>80</v>
@@ -17981,7 +17981,7 @@
         <v>0.098</v>
       </c>
       <c r="Z240">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA240">
         <v>80</v>
@@ -18052,7 +18052,7 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="Z241">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA241">
         <v>80</v>
@@ -18126,7 +18126,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z242">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA242">
         <v>80</v>
@@ -18200,7 +18200,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z243">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA243">
         <v>80</v>
@@ -18274,7 +18274,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z244">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA244">
         <v>80</v>
@@ -18348,7 +18348,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z245">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA245">
         <v>80</v>
@@ -18422,7 +18422,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z246">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA246">
         <v>80</v>
@@ -18496,7 +18496,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z247">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA247">
         <v>80</v>
@@ -18570,7 +18570,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z248">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA248">
         <v>80</v>
@@ -18644,7 +18644,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z249">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA249">
         <v>80</v>
@@ -18715,7 +18715,7 @@
         <v>0.175</v>
       </c>
       <c r="Z250">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA250">
         <v>80</v>
@@ -18786,7 +18786,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z251">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA251">
         <v>80</v>
@@ -18857,7 +18857,7 @@
         <v>0.175</v>
       </c>
       <c r="Z252">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA252">
         <v>80</v>
@@ -18928,7 +18928,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z253">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA253">
         <v>80</v>
@@ -18999,7 +18999,7 @@
         <v>0.112</v>
       </c>
       <c r="Z254">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA254">
         <v>80</v>
@@ -19070,7 +19070,7 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="Z255">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA255">
         <v>80</v>
@@ -19141,7 +19141,7 @@
         <v>0.098</v>
       </c>
       <c r="Z256">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA256">
         <v>80</v>
@@ -19212,7 +19212,7 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="Z257">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA257">
         <v>80</v>
@@ -19286,7 +19286,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z258">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA258">
         <v>80</v>
@@ -19360,7 +19360,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z259">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA259">
         <v>80</v>
@@ -19434,7 +19434,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z260">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA260">
         <v>80</v>
@@ -19508,7 +19508,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z261">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA261">
         <v>80</v>
@@ -19582,7 +19582,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z262">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA262">
         <v>80</v>
@@ -19656,7 +19656,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z263">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA263">
         <v>80</v>
@@ -19730,7 +19730,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z264">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA264">
         <v>80</v>
@@ -19804,7 +19804,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z265">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA265">
         <v>80</v>
@@ -19875,7 +19875,7 @@
         <v>0.175</v>
       </c>
       <c r="Z266">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA266">
         <v>80</v>
@@ -19946,7 +19946,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z267">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA267">
         <v>80</v>
@@ -20017,7 +20017,7 @@
         <v>0.175</v>
       </c>
       <c r="Z268">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA268">
         <v>80</v>
@@ -20088,7 +20088,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z269">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA269">
         <v>80</v>
@@ -20159,7 +20159,7 @@
         <v>0.112</v>
       </c>
       <c r="Z270">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA270">
         <v>80</v>
@@ -20230,7 +20230,7 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="Z271">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA271">
         <v>80</v>
@@ -20301,7 +20301,7 @@
         <v>0.098</v>
       </c>
       <c r="Z272">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA272">
         <v>80</v>
@@ -20372,7 +20372,7 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="Z273">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA273">
         <v>80</v>
@@ -20446,7 +20446,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z274">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA274">
         <v>80</v>
@@ -20520,7 +20520,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z275">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA275">
         <v>80</v>
@@ -20594,7 +20594,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z276">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA276">
         <v>80</v>
@@ -20668,7 +20668,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z277">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA277">
         <v>80</v>
@@ -20742,7 +20742,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z278">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA278">
         <v>80</v>
@@ -20816,7 +20816,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z279">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA279">
         <v>80</v>
@@ -20890,7 +20890,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z280">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA280">
         <v>80</v>
@@ -20964,7 +20964,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z281">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA281">
         <v>80</v>
@@ -21035,7 +21035,7 @@
         <v>0.175</v>
       </c>
       <c r="Z282">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA282">
         <v>80</v>
@@ -21106,7 +21106,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z283">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA283">
         <v>80</v>
@@ -21177,7 +21177,7 @@
         <v>0.175</v>
       </c>
       <c r="Z284">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA284">
         <v>80</v>
@@ -21248,7 +21248,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z285">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA285">
         <v>80</v>
@@ -21319,7 +21319,7 @@
         <v>0.112</v>
       </c>
       <c r="Z286">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA286">
         <v>80</v>
@@ -21390,7 +21390,7 @@
         <v>0.06510000000000001</v>
       </c>
       <c r="Z287">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA287">
         <v>80</v>
@@ -21461,7 +21461,7 @@
         <v>0.098</v>
       </c>
       <c r="Z288">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA288">
         <v>80</v>
@@ -21532,7 +21532,7 @@
         <v>0.06370000000000001</v>
       </c>
       <c r="Z289">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA289">
         <v>80</v>
@@ -21606,7 +21606,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z290">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA290">
         <v>80</v>
@@ -21680,7 +21680,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z291">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA291">
         <v>80</v>
@@ -21754,7 +21754,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z292">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA292">
         <v>80</v>
@@ -21828,7 +21828,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z293">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA293">
         <v>80</v>
@@ -21902,7 +21902,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z294">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA294">
         <v>80</v>
@@ -21976,7 +21976,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z295">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA295">
         <v>80</v>
@@ -22050,7 +22050,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z296">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA296">
         <v>80</v>
@@ -22124,7 +22124,7 @@
         <v>0.004200000000000004</v>
       </c>
       <c r="Z297">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA297">
         <v>80</v>
@@ -22195,7 +22195,7 @@
         <v>0.175</v>
       </c>
       <c r="Z298">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA298">
         <v>100</v>
@@ -22266,7 +22266,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z299">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA299">
         <v>100</v>
@@ -22337,7 +22337,7 @@
         <v>0.175</v>
       </c>
       <c r="Z300">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA300">
         <v>100</v>
@@ -22408,7 +22408,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z301">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA301">
         <v>100</v>
@@ -22479,7 +22479,7 @@
         <v>0.11375</v>
       </c>
       <c r="Z302">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA302">
         <v>100</v>
@@ -22550,7 +22550,7 @@
         <v>0.04550000000000001</v>
       </c>
       <c r="Z303">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA303">
         <v>100</v>
@@ -22621,7 +22621,7 @@
         <v>0.10325</v>
       </c>
       <c r="Z304">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA304">
         <v>100</v>
@@ -22692,7 +22692,7 @@
         <v>0.04130000000000001</v>
       </c>
       <c r="Z305">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA305">
         <v>100</v>
@@ -22766,7 +22766,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z306">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA306">
         <v>100</v>
@@ -22840,7 +22840,7 @@
         <v>0.002100000000000002</v>
       </c>
       <c r="Z307">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA307">
         <v>100</v>
@@ -22914,7 +22914,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z308">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA308">
         <v>100</v>
@@ -22988,7 +22988,7 @@
         <v>0.002100000000000002</v>
       </c>
       <c r="Z309">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA309">
         <v>100</v>
@@ -23062,7 +23062,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z310">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA310">
         <v>100</v>
@@ -23136,7 +23136,7 @@
         <v>0.002100000000000002</v>
       </c>
       <c r="Z311">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA311">
         <v>100</v>
@@ -23210,7 +23210,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z312">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA312">
         <v>100</v>
@@ -23284,7 +23284,7 @@
         <v>0.002100000000000002</v>
       </c>
       <c r="Z313">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA313">
         <v>100</v>
@@ -23355,7 +23355,7 @@
         <v>0.175</v>
       </c>
       <c r="Z314">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA314">
         <v>100</v>
@@ -23426,7 +23426,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z315">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA315">
         <v>100</v>
@@ -23497,7 +23497,7 @@
         <v>0.175</v>
       </c>
       <c r="Z316">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA316">
         <v>100</v>
@@ -23568,7 +23568,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z317">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA317">
         <v>100</v>
@@ -23639,7 +23639,7 @@
         <v>0.11375</v>
       </c>
       <c r="Z318">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA318">
         <v>100</v>
@@ -23710,7 +23710,7 @@
         <v>0.04550000000000001</v>
       </c>
       <c r="Z319">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA319">
         <v>100</v>
@@ -23781,7 +23781,7 @@
         <v>0.10325</v>
       </c>
       <c r="Z320">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA320">
         <v>100</v>
@@ -23852,7 +23852,7 @@
         <v>0.04130000000000001</v>
       </c>
       <c r="Z321">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA321">
         <v>100</v>
@@ -23926,7 +23926,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z322">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA322">
         <v>100</v>
@@ -24000,7 +24000,7 @@
         <v>0.002100000000000002</v>
       </c>
       <c r="Z323">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA323">
         <v>100</v>
@@ -24074,7 +24074,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z324">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA324">
         <v>100</v>
@@ -24148,7 +24148,7 @@
         <v>0.002100000000000002</v>
       </c>
       <c r="Z325">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA325">
         <v>100</v>
@@ -24222,7 +24222,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z326">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA326">
         <v>100</v>
@@ -24296,7 +24296,7 @@
         <v>0.002100000000000002</v>
       </c>
       <c r="Z327">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA327">
         <v>100</v>
@@ -24370,7 +24370,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z328">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA328">
         <v>100</v>
@@ -24444,7 +24444,7 @@
         <v>0.002100000000000002</v>
       </c>
       <c r="Z329">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA329">
         <v>100</v>
@@ -24515,7 +24515,7 @@
         <v>0.175</v>
       </c>
       <c r="Z330">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA330">
         <v>90</v>
@@ -24586,7 +24586,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z331">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA331">
         <v>90</v>
@@ -24657,7 +24657,7 @@
         <v>0.175</v>
       </c>
       <c r="Z332">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA332">
         <v>90</v>
@@ -24728,7 +24728,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z333">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA333">
         <v>90</v>
@@ -24799,7 +24799,7 @@
         <v>0.11375</v>
       </c>
       <c r="Z334">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA334">
         <v>90</v>
@@ -24870,7 +24870,7 @@
         <v>0.04550000000000001</v>
       </c>
       <c r="Z335">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA335">
         <v>90</v>
@@ -24941,7 +24941,7 @@
         <v>0.10325</v>
       </c>
       <c r="Z336">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA336">
         <v>90</v>
@@ -25012,7 +25012,7 @@
         <v>0.04130000000000001</v>
       </c>
       <c r="Z337">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA337">
         <v>90</v>
@@ -25086,7 +25086,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z338">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA338">
         <v>90</v>
@@ -25160,7 +25160,7 @@
         <v>0.002100000000000002</v>
       </c>
       <c r="Z339">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA339">
         <v>90</v>
@@ -25234,7 +25234,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z340">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA340">
         <v>90</v>
@@ -25308,7 +25308,7 @@
         <v>0.002100000000000002</v>
       </c>
       <c r="Z341">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA341">
         <v>90</v>
@@ -25382,7 +25382,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z342">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA342">
         <v>90</v>
@@ -25456,7 +25456,7 @@
         <v>0.002100000000000002</v>
       </c>
       <c r="Z343">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA343">
         <v>90</v>
@@ -25530,7 +25530,7 @@
         <v>0.005250000000000005</v>
       </c>
       <c r="Z344">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA344">
         <v>90</v>
@@ -25604,7 +25604,7 @@
         <v>0.002100000000000002</v>
       </c>
       <c r="Z345">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA345">
         <v>90</v>
@@ -25675,7 +25675,7 @@
         <v>0.15</v>
       </c>
       <c r="Z346">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA346">
         <v>100</v>
@@ -25746,7 +25746,7 @@
         <v>0.15</v>
       </c>
       <c r="Z347">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA347">
         <v>100</v>
@@ -25817,7 +25817,7 @@
         <v>0.09899999999999999</v>
       </c>
       <c r="Z348">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA348">
         <v>100</v>
@@ -25888,7 +25888,7 @@
         <v>0.0975</v>
       </c>
       <c r="Z349">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA349">
         <v>100</v>
@@ -25959,7 +25959,7 @@
         <v>0.02999999999999999</v>
       </c>
       <c r="Z350">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA350">
         <v>100</v>
@@ -26030,7 +26030,7 @@
         <v>0.02999999999999999</v>
       </c>
       <c r="Z351">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA351">
         <v>100</v>
@@ -26101,7 +26101,7 @@
         <v>0.01199999999999999</v>
       </c>
       <c r="Z352">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA352">
         <v>100</v>
@@ -26172,7 +26172,7 @@
         <v>0.01199999999999999</v>
       </c>
       <c r="Z353">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA353">
         <v>100</v>
@@ -26243,7 +26243,7 @@
         <v>0.01199999999999999</v>
       </c>
       <c r="Z354">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA354">
         <v>100</v>
@@ -26314,7 +26314,7 @@
         <v>0.01199999999999999</v>
       </c>
       <c r="Z355">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA355">
         <v>100</v>
@@ -26385,7 +26385,7 @@
         <v>0.01199999999999999</v>
       </c>
       <c r="Z356">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA356">
         <v>100</v>
@@ -26456,7 +26456,7 @@
         <v>0.01199999999999999</v>
       </c>
       <c r="Z357">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA357">
         <v>100</v>
